--- a/draft/测试结果数据.xlsx
+++ b/draft/测试结果数据.xlsx
@@ -2274,7 +2274,7 @@
   <dimension ref="A1:P50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+      <selection activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/draft/测试结果数据.xlsx
+++ b/draft/测试结果数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="8415" windowHeight="5010" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="8415" windowHeight="5010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="112">
   <si>
     <t xml:space="preserve">init </t>
   </si>
@@ -320,13 +320,53 @@
   <si>
     <t>mfs_read</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国特色社会主义理论与实践</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程学习情况</t>
+  </si>
+  <si>
+    <t>学位课程名称</t>
+  </si>
+  <si>
+    <t>（如补考用*号注明）</t>
+  </si>
+  <si>
+    <t>学</t>
+  </si>
+  <si>
+    <t>分</t>
+  </si>
+  <si>
+    <t>成</t>
+  </si>
+  <si>
+    <t>绩</t>
+  </si>
+  <si>
+    <t>考试时间</t>
+  </si>
+  <si>
+    <t>非学位课程名称</t>
+  </si>
+  <si>
+    <t>成绩</t>
+  </si>
+  <si>
+    <t>学位课合计学分</t>
+  </si>
+  <si>
+    <t>课程学习总学分</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -341,6 +381,13 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000066"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -358,6 +405,27 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000066"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -380,7 +448,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -523,41 +591,195 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -574,7 +796,17 @@
   <c:lang val="zh-CN"/>
   <c:chart>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17395143254152057"/>
+          <c:y val="0.19031321084864392"/>
+          <c:w val="0.64767427600961636"/>
+          <c:h val="0.62870086693708749"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -795,6 +1027,31 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>元数据操作类型</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.826886521537749"/>
+              <c:y val="0.8545454545454545"/>
+            </c:manualLayout>
+          </c:layout>
+        </c:title>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="132552576"/>
         <c:crosses val="autoZero"/>
@@ -809,6 +1066,42 @@
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>元数据操作</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>(OP/s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.10084033613445378"/>
+              <c:y val="2.3855563509106826E-2"/>
+            </c:manualLayout>
+          </c:layout>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="131964288"/>
@@ -840,10 +1133,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.14082174103237097"/>
-          <c:y val="4.6770924467774859E-2"/>
+          <c:x val="0.18114939791316256"/>
+          <c:y val="0.18010438695163106"/>
           <c:w val="0.62555314960629926"/>
-          <c:h val="0.74838582677165355"/>
+          <c:h val="0.61505241844769398"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1287,6 +1580,36 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>文件大小</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>(MB)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.82318225344705254"/>
+              <c:y val="0.83889343832021002"/>
+            </c:manualLayout>
+          </c:layout>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="91305472"/>
@@ -1302,6 +1625,36 @@
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>读写速度</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>(KB/s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0"/>
+              <c:y val="7.3741615631379417E-2"/>
+            </c:manualLayout>
+          </c:layout>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="91276032"/>
@@ -1311,7 +1664,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.81301817424050726"/>
+          <c:y val="0.15270161229846269"/>
+          <c:w val="0.17942038908652486"/>
+          <c:h val="0.27554915635545557"/>
+        </c:manualLayout>
+      </c:layout>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -1328,15 +1690,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:colOff>238124</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1358,14 +1720,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1673,15 +2035,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:O98"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.125" customWidth="1"/>
+    <col min="1" max="1" width="22.375" customWidth="1"/>
+    <col min="4" max="4" width="27.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1844,425 +2207,1446 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="14.25" thickBot="1"/>
-    <row r="39" spans="1:5">
+    <row r="38" spans="1:7" ht="14.25" thickBot="1"/>
+    <row r="39" spans="1:7">
       <c r="A39" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E39" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="33.75">
+      <c r="G39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15" customHeight="1">
       <c r="A40" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B40" s="1">
-        <v>79</v>
-      </c>
-      <c r="C40" s="1">
+        <v>1</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G40" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15" customHeight="1">
+      <c r="A41" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" s="1">
+        <v>2</v>
+      </c>
+      <c r="C41" s="1">
+        <v>89</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G41" s="1">
         <v>3</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E40" s="6" t="s">
+    </row>
+    <row r="42" spans="1:7" ht="15" customHeight="1">
+      <c r="A42" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" s="1">
+        <v>3</v>
+      </c>
+      <c r="C42" s="1">
+        <v>66</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G42" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15" customHeight="1">
+      <c r="A43" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B43" s="1">
+        <v>2</v>
+      </c>
+      <c r="C43" s="1">
+        <v>85</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15" customHeight="1">
+      <c r="A44" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B44" s="1">
+        <v>1</v>
+      </c>
+      <c r="C44" s="1">
+        <v>60</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15" customHeight="1">
+      <c r="A45" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="1">
+        <v>1</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D45" s="6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" ht="33.75">
-      <c r="A41" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C41" s="1">
+      <c r="E45" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G45" s="1">
         <v>1</v>
       </c>
-      <c r="D41" s="1" t="s">
+    </row>
+    <row r="46" spans="1:7" ht="15" customHeight="1">
+      <c r="A46" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" s="1">
+        <v>1</v>
+      </c>
+      <c r="C46" s="1">
+        <v>80</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="G46" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="15" customHeight="1">
+      <c r="A47" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" s="1">
+        <v>2</v>
+      </c>
+      <c r="C47" s="1">
+        <v>92</v>
+      </c>
+      <c r="D47" s="6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" ht="33.75">
-      <c r="A42" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B42" s="1">
-        <v>80</v>
-      </c>
-      <c r="C42" s="1">
+      <c r="E47" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G47" s="1">
         <v>1</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="33.75">
-      <c r="A43" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C43" s="1">
-        <v>3</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="33.75">
-      <c r="A44" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B44" s="1">
-        <v>85</v>
-      </c>
-      <c r="C44" s="1">
-        <v>3</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="33.75">
-      <c r="A45" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B45" s="1">
-        <v>76</v>
-      </c>
-      <c r="C45" s="1">
-        <v>3</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="33.75">
-      <c r="A46" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B46" s="1">
-        <v>92</v>
-      </c>
-      <c r="C46" s="1">
-        <v>2</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="33.75">
-      <c r="A47" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B47" s="1">
-        <v>87</v>
-      </c>
-      <c r="C47" s="1">
-        <v>3</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="33.75">
+    </row>
+    <row r="48" spans="1:7" ht="15" customHeight="1">
       <c r="A48" s="5" t="s">
         <v>54</v>
       </c>
       <c r="B48" s="1">
+        <v>1</v>
+      </c>
+      <c r="C48" s="1">
         <v>78</v>
       </c>
-      <c r="C48" s="1">
-        <v>1</v>
-      </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E48" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="33.75">
+      <c r="G48" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="15" customHeight="1" thickBot="1">
       <c r="A49" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C49" s="1">
+      <c r="D49" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G49" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="15" customHeight="1" thickBot="1">
+      <c r="A50" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B50" s="1">
+        <v>1</v>
+      </c>
+      <c r="C50" s="1">
+        <v>82</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G50" s="1">
+        <v>1</v>
+      </c>
+      <c r="H50" s="16"/>
+      <c r="I50" s="17"/>
+      <c r="J50" s="17"/>
+      <c r="K50" s="17"/>
+      <c r="L50" s="17"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="18"/>
+    </row>
+    <row r="51" spans="1:15" ht="15" customHeight="1">
+      <c r="A51" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B51" s="1">
+        <v>1</v>
+      </c>
+      <c r="C51" s="1">
+        <v>91</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G51" s="1">
         <v>0.5</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="H51" s="10"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="19"/>
+      <c r="L51" s="12"/>
+      <c r="M51" s="19"/>
+      <c r="N51" s="19"/>
+      <c r="O51" s="19"/>
+    </row>
+    <row r="52" spans="1:15" ht="15" customHeight="1" thickBot="1">
+      <c r="A52" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B52" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E49" s="6" t="s">
+      <c r="G52" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H52" s="15"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="13"/>
+      <c r="K52" s="20"/>
+      <c r="L52" s="13"/>
+      <c r="M52" s="20"/>
+      <c r="N52" s="20"/>
+      <c r="O52" s="20"/>
+    </row>
+    <row r="53" spans="1:15" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A53" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B53" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G53">
+        <f>SUM(G39:G52)</f>
+        <v>17.5</v>
+      </c>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="15"/>
+      <c r="K53" s="15"/>
+      <c r="L53" s="25"/>
+      <c r="M53" s="25"/>
+      <c r="N53" s="25"/>
+      <c r="O53" s="25"/>
+    </row>
+    <row r="54" spans="1:15" ht="15" customHeight="1" thickBot="1">
+      <c r="A54" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B54" s="1">
+        <v>1</v>
+      </c>
+      <c r="C54" s="1">
+        <v>85</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="15"/>
+      <c r="K54" s="15"/>
+      <c r="L54" s="26"/>
+      <c r="M54" s="26"/>
+      <c r="N54" s="26"/>
+      <c r="O54" s="26"/>
+    </row>
+    <row r="55" spans="1:15" ht="15" customHeight="1" thickBot="1">
+      <c r="A55" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B55" s="1">
+        <v>3</v>
+      </c>
+      <c r="C55" s="1">
+        <v>60</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="15"/>
+      <c r="K55" s="15"/>
+      <c r="L55" s="15"/>
+      <c r="M55" s="15"/>
+      <c r="N55" s="15"/>
+      <c r="O55" s="15"/>
+    </row>
+    <row r="56" spans="1:15" ht="15" customHeight="1" thickBot="1">
+      <c r="A56" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56" s="1">
+        <v>3</v>
+      </c>
+      <c r="C56" s="1">
+        <v>87</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="15"/>
+      <c r="K56" s="15"/>
+      <c r="L56" s="15"/>
+      <c r="M56" s="15"/>
+      <c r="N56" s="15"/>
+      <c r="O56" s="15"/>
+    </row>
+    <row r="57" spans="1:15" ht="15" customHeight="1" thickBot="1">
+      <c r="A57" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B57" s="1">
+        <v>3</v>
+      </c>
+      <c r="C57" s="1">
+        <v>79</v>
+      </c>
+      <c r="D57" s="6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" ht="33.75">
-      <c r="A50" s="5" t="s">
+      <c r="E57" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="15"/>
+      <c r="K57" s="15"/>
+      <c r="L57" s="15"/>
+      <c r="M57" s="15"/>
+      <c r="N57" s="15"/>
+      <c r="O57" s="15"/>
+    </row>
+    <row r="58" spans="1:15" ht="15" customHeight="1" thickBot="1">
+      <c r="A58" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B58" s="1">
+        <v>3</v>
+      </c>
+      <c r="C58" s="1">
+        <v>85</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="15"/>
+      <c r="K58" s="15"/>
+      <c r="L58" s="15"/>
+      <c r="M58" s="15"/>
+      <c r="N58" s="15"/>
+      <c r="O58" s="15"/>
+    </row>
+    <row r="59" spans="1:15" ht="15" customHeight="1" thickBot="1">
+      <c r="A59" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B59" s="1">
+        <v>3</v>
+      </c>
+      <c r="C59" s="1">
+        <v>76</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="15"/>
+      <c r="K59" s="15"/>
+      <c r="L59" s="15"/>
+      <c r="M59" s="15"/>
+      <c r="N59" s="15"/>
+      <c r="O59" s="15"/>
+    </row>
+    <row r="60" spans="1:15" ht="15" customHeight="1" thickBot="1">
+      <c r="A60" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B60" s="8">
+        <v>3</v>
+      </c>
+      <c r="C60" s="8">
+        <v>87</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="15"/>
+      <c r="K60" s="15"/>
+      <c r="L60" s="15"/>
+      <c r="M60" s="15"/>
+      <c r="N60" s="15"/>
+      <c r="O60" s="15"/>
+    </row>
+    <row r="61" spans="1:15" ht="14.25" thickBot="1">
+      <c r="B61">
+        <f>SUM(B40:B60)</f>
+        <v>36.5</v>
+      </c>
+      <c r="H61" s="14"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="15"/>
+      <c r="K61" s="15"/>
+      <c r="L61" s="15"/>
+      <c r="M61" s="15"/>
+      <c r="N61" s="15"/>
+      <c r="O61" s="15"/>
+    </row>
+    <row r="62" spans="1:15" ht="14.25" thickBot="1">
+      <c r="H62" s="14"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="15"/>
+      <c r="K62" s="15"/>
+      <c r="L62" s="15"/>
+      <c r="M62" s="15"/>
+      <c r="N62" s="15"/>
+      <c r="O62" s="15"/>
+    </row>
+    <row r="63" spans="1:15" ht="14.25" thickBot="1">
+      <c r="H63" s="14"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="15"/>
+      <c r="K63" s="15"/>
+      <c r="L63" s="15"/>
+      <c r="M63" s="15"/>
+      <c r="N63" s="15"/>
+      <c r="O63" s="15"/>
+    </row>
+    <row r="64" spans="1:15" ht="14.25" thickBot="1">
+      <c r="H64" s="14"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="15"/>
+      <c r="K64" s="15"/>
+      <c r="L64" s="15"/>
+      <c r="M64" s="15"/>
+      <c r="N64" s="15"/>
+      <c r="O64" s="15"/>
+    </row>
+    <row r="65" spans="1:15" ht="14.25" thickBot="1">
+      <c r="A65" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B65" s="1">
+        <v>3</v>
+      </c>
+      <c r="C65" s="1">
+        <v>79</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65" s="14"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="15"/>
+      <c r="K65" s="15"/>
+      <c r="L65" s="15"/>
+      <c r="M65" s="15"/>
+      <c r="N65" s="15"/>
+      <c r="O65" s="15"/>
+    </row>
+    <row r="66" spans="1:15" ht="14.25" thickBot="1">
+      <c r="A66" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B66" s="1">
+        <v>1</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H66" s="14"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="15"/>
+      <c r="K66" s="15"/>
+      <c r="L66" s="15"/>
+      <c r="M66" s="15"/>
+      <c r="N66" s="15"/>
+      <c r="O66" s="15"/>
+    </row>
+    <row r="67" spans="1:15" ht="14.25" thickBot="1">
+      <c r="A67" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B67" s="1">
+        <v>1</v>
+      </c>
+      <c r="C67" s="1">
+        <v>80</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H67" s="14"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="15"/>
+      <c r="K67" s="15"/>
+      <c r="L67" s="15"/>
+      <c r="M67" s="15"/>
+      <c r="N67" s="15"/>
+      <c r="O67" s="15"/>
+    </row>
+    <row r="68" spans="1:15" ht="14.25" thickBot="1">
+      <c r="A68" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B68" s="1">
+        <v>3</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H68" s="14"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="15"/>
+      <c r="K68" s="15"/>
+      <c r="L68" s="15"/>
+      <c r="M68" s="15"/>
+      <c r="N68" s="15"/>
+      <c r="O68" s="15"/>
+    </row>
+    <row r="69" spans="1:15" ht="14.25" thickBot="1">
+      <c r="A69" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B69" s="1">
+        <v>3</v>
+      </c>
+      <c r="C69" s="1">
+        <v>85</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H69" s="14"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="15"/>
+      <c r="K69" s="15"/>
+      <c r="L69" s="15"/>
+      <c r="M69" s="15"/>
+      <c r="N69" s="15"/>
+      <c r="O69" s="15"/>
+    </row>
+    <row r="70" spans="1:15" ht="14.25" thickBot="1">
+      <c r="A70" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B70" s="1">
+        <v>3</v>
+      </c>
+      <c r="C70" s="1">
+        <v>76</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H70" s="14"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="15"/>
+      <c r="K70" s="15"/>
+      <c r="L70" s="15"/>
+      <c r="M70" s="15"/>
+      <c r="N70" s="15"/>
+      <c r="O70" s="15"/>
+    </row>
+    <row r="71" spans="1:15" ht="14.25" thickBot="1">
+      <c r="A71" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B71" s="1">
+        <v>2</v>
+      </c>
+      <c r="C71" s="1">
+        <v>92</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H71" s="11"/>
+      <c r="I71" s="27"/>
+      <c r="J71" s="28"/>
+      <c r="K71" s="29"/>
+      <c r="L71" s="13"/>
+      <c r="M71" s="27"/>
+      <c r="N71" s="28"/>
+      <c r="O71" s="29"/>
+    </row>
+    <row r="72" spans="1:15">
+      <c r="A72" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B72" s="1">
+        <v>3</v>
+      </c>
+      <c r="C72" s="1">
+        <v>87</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
+      <c r="A73" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B73" s="1">
+        <v>1</v>
+      </c>
+      <c r="C73" s="1">
+        <v>78</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
+      <c r="A74" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B74" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
+      <c r="A75" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B75" s="1">
+        <v>1</v>
+      </c>
+      <c r="C75" s="1">
         <v>85</v>
       </c>
-      <c r="C50" s="1">
+      <c r="D75" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" ht="14.25" thickBot="1">
+      <c r="A76" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B76" s="1">
         <v>1</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="C76" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" ht="14.25" thickBot="1">
+      <c r="A77" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B77" s="1">
+        <v>3</v>
+      </c>
+      <c r="C77" s="1">
+        <v>60</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E77" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E50" s="6" t="s">
+      <c r="H77" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="I77" s="17"/>
+      <c r="J77" s="17"/>
+      <c r="K77" s="17"/>
+      <c r="L77" s="17"/>
+      <c r="M77" s="17"/>
+      <c r="N77" s="17"/>
+      <c r="O77" s="18"/>
+    </row>
+    <row r="78" spans="1:15" ht="25.5">
+      <c r="A78" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B78" s="1">
+        <v>2</v>
+      </c>
+      <c r="C78" s="1">
+        <v>89</v>
+      </c>
+      <c r="D78" s="6" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" ht="33.75">
-      <c r="A51" s="5" t="s">
+      <c r="E78" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H78" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="I78" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="J78" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="K78" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="L78" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="M78" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="N78" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="O78" s="19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" ht="39" thickBot="1">
+      <c r="A79" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B79" s="1">
+        <v>3</v>
+      </c>
+      <c r="C79" s="1">
+        <v>87</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H79" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="I79" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="J79" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="K79" s="20"/>
+      <c r="L79" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="M79" s="20"/>
+      <c r="N79" s="20"/>
+      <c r="O79" s="20"/>
+    </row>
+    <row r="80" spans="1:15" ht="19.5" customHeight="1">
+      <c r="A80" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B80" s="1">
+        <v>3</v>
+      </c>
+      <c r="C80" s="1">
+        <v>66</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H80" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="I80" s="23">
+        <v>1</v>
+      </c>
+      <c r="J80" s="23">
+        <v>85</v>
+      </c>
+      <c r="K80" s="25"/>
+      <c r="L80" s="25"/>
+      <c r="M80" s="25"/>
+      <c r="N80" s="25"/>
+      <c r="O80" s="25"/>
+    </row>
+    <row r="81" spans="1:15" ht="14.25" thickBot="1">
+      <c r="A81" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B81" s="1">
+        <v>2</v>
+      </c>
+      <c r="C81" s="1">
+        <v>85</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H81" s="22"/>
+      <c r="I81" s="24"/>
+      <c r="J81" s="24"/>
+      <c r="K81" s="26"/>
+      <c r="L81" s="26"/>
+      <c r="M81" s="26"/>
+      <c r="N81" s="26"/>
+      <c r="O81" s="26"/>
+    </row>
+    <row r="82" spans="1:15" ht="51.75" thickBot="1">
+      <c r="A82" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B82" s="1">
+        <v>1</v>
+      </c>
+      <c r="C82" s="1">
+        <v>60</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H82" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="I82" s="15">
+        <v>1</v>
+      </c>
+      <c r="J82" s="15">
+        <v>85</v>
+      </c>
+      <c r="K82" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="L82" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="M82" s="15">
+        <v>1</v>
+      </c>
+      <c r="N82" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C51" s="1">
+      <c r="O82" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" ht="51.75" thickBot="1">
+      <c r="A83" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B83" s="1">
         <v>1</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="C83" s="1">
+        <v>82</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E83" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E51" s="6" t="s">
+      <c r="H83" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="I83" s="15">
+        <v>3</v>
+      </c>
+      <c r="J83" s="15">
+        <v>60</v>
+      </c>
+      <c r="K83" s="15" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" ht="33.75">
-      <c r="A52" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B52" s="1">
+      <c r="L83" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="M83" s="15">
+        <v>2</v>
+      </c>
+      <c r="N83" s="15">
+        <v>89</v>
+      </c>
+      <c r="O83" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" ht="51.75" thickBot="1">
+      <c r="A84" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B84" s="1">
+        <v>1</v>
+      </c>
+      <c r="C84" s="1">
+        <v>91</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H84" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="I84" s="15">
+        <v>3</v>
+      </c>
+      <c r="J84" s="15">
+        <v>87</v>
+      </c>
+      <c r="K84" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="L84" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C52" s="1">
+      <c r="M84" s="15">
         <v>3</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E52" s="6" t="s">
+      <c r="N84" s="15">
+        <v>66</v>
+      </c>
+      <c r="O84" s="15" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="33.75">
-      <c r="A53" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B53" s="1">
-        <v>89</v>
-      </c>
-      <c r="C53" s="1">
+    <row r="85" spans="1:15" ht="51.75" thickBot="1">
+      <c r="A85" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B85" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H85" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="I85" s="15">
+        <v>3</v>
+      </c>
+      <c r="J85" s="15">
+        <v>79</v>
+      </c>
+      <c r="K85" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="L85" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="M85" s="15">
         <v>2</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="N85" s="15">
+        <v>85</v>
+      </c>
+      <c r="O85" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" ht="51.75" thickBot="1">
+      <c r="A86" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B86" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D86" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E86" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E53" s="6" t="s">
+      <c r="H86" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="I86" s="15">
+        <v>3</v>
+      </c>
+      <c r="J86" s="15">
+        <v>85</v>
+      </c>
+      <c r="K86" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="L86" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M86" s="15">
+        <v>1</v>
+      </c>
+      <c r="N86" s="15">
+        <v>60</v>
+      </c>
+      <c r="O86" s="15" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="33.75">
-      <c r="A54" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B54" s="1">
+    <row r="87" spans="1:15" ht="51.75" thickBot="1">
+      <c r="H87" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="I87" s="15">
+        <v>3</v>
+      </c>
+      <c r="J87" s="15">
+        <v>76</v>
+      </c>
+      <c r="K87" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="L87" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="M87" s="15">
+        <v>1</v>
+      </c>
+      <c r="N87" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="O87" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" ht="51.75" thickBot="1">
+      <c r="H88" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="I88" s="15">
+        <v>3</v>
+      </c>
+      <c r="J88" s="15">
         <v>87</v>
       </c>
-      <c r="C54" s="1">
-        <v>3</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="33.75">
-      <c r="A55" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B55" s="1">
+      <c r="K88" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="L88" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="M88" s="15">
+        <v>1</v>
+      </c>
+      <c r="N88" s="15">
+        <v>80</v>
+      </c>
+      <c r="O88" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" ht="51.75" thickBot="1">
+      <c r="H89" s="14"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="15"/>
+      <c r="K89" s="15"/>
+      <c r="L89" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="M89" s="15">
+        <v>2</v>
+      </c>
+      <c r="N89" s="15">
+        <v>92</v>
+      </c>
+      <c r="O89" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" ht="51.75" thickBot="1">
+      <c r="H90" s="14"/>
+      <c r="I90" s="15"/>
+      <c r="J90" s="15"/>
+      <c r="K90" s="15"/>
+      <c r="L90" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="M90" s="15">
+        <v>1</v>
+      </c>
+      <c r="N90" s="15">
+        <v>78</v>
+      </c>
+      <c r="O90" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" ht="51.75" thickBot="1">
+      <c r="H91" s="14"/>
+      <c r="I91" s="15"/>
+      <c r="J91" s="15"/>
+      <c r="K91" s="15"/>
+      <c r="L91" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="M91" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="N91" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="O91" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" ht="51.75" thickBot="1">
+      <c r="H92" s="14"/>
+      <c r="I92" s="15"/>
+      <c r="J92" s="15"/>
+      <c r="K92" s="15"/>
+      <c r="L92" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="M92" s="15">
+        <v>1</v>
+      </c>
+      <c r="N92" s="15">
+        <v>82</v>
+      </c>
+      <c r="O92" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" ht="51.75" thickBot="1">
+      <c r="H93" s="14"/>
+      <c r="I93" s="15"/>
+      <c r="J93" s="15"/>
+      <c r="K93" s="15"/>
+      <c r="L93" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="M93" s="15">
+        <v>1</v>
+      </c>
+      <c r="N93" s="15">
+        <v>91</v>
+      </c>
+      <c r="O93" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" ht="51.75" thickBot="1">
+      <c r="H94" s="14"/>
+      <c r="I94" s="15"/>
+      <c r="J94" s="15"/>
+      <c r="K94" s="15"/>
+      <c r="L94" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="M94" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="N94" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="O94" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" ht="51.75" thickBot="1">
+      <c r="H95" s="14"/>
+      <c r="I95" s="15"/>
+      <c r="J95" s="15"/>
+      <c r="K95" s="15"/>
+      <c r="L95" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C55" s="1">
-        <v>3</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="33.75">
-      <c r="A56" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B56" s="1">
-        <v>85</v>
-      </c>
-      <c r="C56" s="1">
-        <v>2</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="33.75">
-      <c r="A57" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B57" s="1">
-        <v>60</v>
-      </c>
-      <c r="C57" s="1">
-        <v>1</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="33.75">
-      <c r="A58" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B58" s="1">
-        <v>82</v>
-      </c>
-      <c r="C58" s="1">
-        <v>1</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E58" s="6" t="s">
+      <c r="M95" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="N95" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="O95" s="15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="33.75">
-      <c r="A59" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B59" s="1">
-        <v>91</v>
-      </c>
-      <c r="C59" s="1">
-        <v>1</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="33.75">
-      <c r="A60" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C60" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="34.5" thickBot="1">
-      <c r="A61" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C61" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E61" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="C62">
-        <f>SUM(C40:C61)</f>
-        <v>39.5</v>
-      </c>
+    <row r="96" spans="1:15" ht="14.25" thickBot="1">
+      <c r="H96" s="14"/>
+      <c r="I96" s="15"/>
+      <c r="J96" s="15"/>
+      <c r="K96" s="15"/>
+      <c r="L96" s="15"/>
+      <c r="M96" s="15"/>
+      <c r="N96" s="15"/>
+      <c r="O96" s="15"/>
+    </row>
+    <row r="97" spans="8:15" ht="14.25" thickBot="1">
+      <c r="H97" s="14"/>
+      <c r="I97" s="15"/>
+      <c r="J97" s="15"/>
+      <c r="K97" s="15"/>
+      <c r="L97" s="15"/>
+      <c r="M97" s="15"/>
+      <c r="N97" s="15"/>
+      <c r="O97" s="15"/>
+    </row>
+    <row r="98" spans="8:15" ht="26.25" thickBot="1">
+      <c r="H98" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="I98" s="27"/>
+      <c r="J98" s="28"/>
+      <c r="K98" s="29"/>
+      <c r="L98" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="M98" s="27"/>
+      <c r="N98" s="28"/>
+      <c r="O98" s="29"/>
     </row>
   </sheetData>
+  <sortState ref="A40:F61">
+    <sortCondition ref="D40:D61"/>
+  </sortState>
+  <mergeCells count="26">
+    <mergeCell ref="N80:N81"/>
+    <mergeCell ref="O80:O81"/>
+    <mergeCell ref="I98:K98"/>
+    <mergeCell ref="M98:O98"/>
+    <mergeCell ref="K78:K79"/>
+    <mergeCell ref="M78:M79"/>
+    <mergeCell ref="N78:N79"/>
+    <mergeCell ref="O78:O79"/>
+    <mergeCell ref="H80:H81"/>
+    <mergeCell ref="I80:I81"/>
+    <mergeCell ref="J80:J81"/>
+    <mergeCell ref="K80:K81"/>
+    <mergeCell ref="L80:L81"/>
+    <mergeCell ref="M80:M81"/>
+    <mergeCell ref="M53:M54"/>
+    <mergeCell ref="N53:N54"/>
+    <mergeCell ref="O53:O54"/>
+    <mergeCell ref="I71:K71"/>
+    <mergeCell ref="M71:O71"/>
+    <mergeCell ref="H77:O77"/>
+    <mergeCell ref="H50:O50"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="M51:M52"/>
+    <mergeCell ref="N51:N52"/>
+    <mergeCell ref="O51:O52"/>
+    <mergeCell ref="L53:L54"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="96" verticalDpi="96" r:id="rId1"/>
@@ -2273,8 +3657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="I50" sqref="I50"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/draft/测试结果数据.xlsx
+++ b/draft/测试结果数据.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="132">
   <si>
     <t xml:space="preserve">init </t>
   </si>
@@ -438,6 +438,10 @@
     <t>MDS1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>数据，待测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -839,20 +843,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
@@ -869,6 +873,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
@@ -881,20 +891,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -920,10 +924,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.17395143254152073"/>
+          <c:x val="0.17395143254152079"/>
           <c:y val="0.19031321084864392"/>
-          <c:w val="0.64767427600961691"/>
-          <c:h val="0.62870086693708782"/>
+          <c:w val="0.64767427600961713"/>
+          <c:h val="0.62870086693708793"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1137,11 +1141,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="81089664"/>
-        <c:axId val="81091968"/>
+        <c:axId val="78633600"/>
+        <c:axId val="81003648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="81089664"/>
+        <c:axId val="78633600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1166,20 +1170,20 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.82688652153774878"/>
-              <c:y val="0.85454545454545483"/>
+              <c:x val="0.82688652153774866"/>
+              <c:y val="0.85454545454545494"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81091968"/>
+        <c:crossAx val="81003648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81091968"/>
+        <c:axId val="81003648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1216,14 +1220,14 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.10084033613445373"/>
-              <c:y val="2.3855563509106833E-2"/>
+              <c:x val="0.1008403361344537"/>
+              <c:y val="2.3855563509106836E-2"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81089664"/>
+        <c:crossAx val="78633600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1235,7 +1239,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1254,7 +1258,7 @@
           <c:x val="6.4145238072998878E-2"/>
           <c:y val="0.15866476631073934"/>
           <c:w val="0.8229800456437607"/>
-          <c:h val="0.70093631471140294"/>
+          <c:h val="0.70093631471140283"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -12635,11 +12639,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="144674176"/>
-        <c:axId val="161346688"/>
+        <c:axId val="81867136"/>
+        <c:axId val="81869056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="144674176"/>
+        <c:axId val="81867136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12665,19 +12669,19 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="0.90410501178455893"/>
-              <c:y val="0.88921859545004944"/>
+              <c:y val="0.88921859545004933"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161346688"/>
+        <c:crossAx val="81869056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="161346688"/>
+        <c:axId val="81869056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12708,26 +12712,25 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="1.5816528272044286E-2"/>
-              <c:y val="1.8529404892637699E-2"/>
+              <c:y val="1.8529404892637703E-2"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144674176"/>
+        <c:crossAx val="81867136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -12744,13 +12747,151 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.11265507436570428"/>
-          <c:y val="0.22732648002333042"/>
+          <c:y val="0.22732648002333056"/>
           <c:w val="0.68715048118985123"/>
-          <c:h val="0.62229913969087203"/>
+          <c:h val="0.62229913969087325"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'单MDS(2)'!$C$17:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'单MDS(2)'!$D$17:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3034.9230769230771</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4821.2307692307695</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4259.0769230769229</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4253.8461538461543</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'单MDS(2)'!$C$17:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'单MDS(2)'!$D$17:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3034.9230769230771</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4821.2307692307695</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4259.0769230769229</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4253.8461538461543</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'单MDS(2)'!$C$17:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'单MDS(2)'!$D$17:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3034.9230769230771</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4821.2307692307695</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4259.0769230769229</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4253.8461538461543</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="0"/>
@@ -12798,11 +12939,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="162343168"/>
-        <c:axId val="164923648"/>
+        <c:axId val="83608704"/>
+        <c:axId val="83610624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="162343168"/>
+        <c:axId val="83608704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12828,20 +12969,20 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="0.83650809273840765"/>
-              <c:y val="0.81481481481481477"/>
+              <c:y val="0.81481481481481532"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="164923648"/>
+        <c:crossAx val="83610624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="164923648"/>
+        <c:axId val="83610624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12871,14 +13012,199 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.6666666666666666E-2"/>
-              <c:y val="5.2364756488772236E-2"/>
+              <c:x val="1.6666666666666684E-2"/>
+              <c:y val="5.2364756488772264E-2"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162343168"/>
+        <c:crossAx val="83608704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="zh-CN"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12673840769903763"/>
+          <c:y val="0.17065854422518173"/>
+          <c:w val="0.67306714785651789"/>
+          <c:h val="0.65111996802868777"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'单MDS(2)'!$C$32:$C$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'单MDS(2)'!$D$32:$D$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2034.9230769230801</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3821.23076923077</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6359.0769230769201</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7459.0769230769201</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="139046912"/>
+        <c:axId val="135897088"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="139046912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>MDS</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>个数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.83570253718285226"/>
+              <c:y val="0.82990397805212623"/>
+            </c:manualLayout>
+          </c:layout>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="135897088"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="135897088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>总体性能</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.5000000000000001E-2"/>
+              <c:y val="2.4339241545424078E-2"/>
+            </c:manualLayout>
+          </c:layout>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="139046912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12903,10 +13229,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.18114939791316262"/>
-          <c:y val="0.18010438695163111"/>
+          <c:x val="0.18114939791316267"/>
+          <c:y val="0.18010438695163114"/>
           <c:w val="0.62555314960629926"/>
-          <c:h val="0.6150524184476942"/>
+          <c:h val="0.61505241844769432"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -13341,11 +13667,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="81335808"/>
-        <c:axId val="81337728"/>
+        <c:axId val="81030144"/>
+        <c:axId val="81056896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="81335808"/>
+        <c:axId val="81030144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13376,20 +13702,20 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="0.82318225344705254"/>
-              <c:y val="0.83889343832021024"/>
+              <c:y val="0.83889343832021035"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81337728"/>
+        <c:crossAx val="81056896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81337728"/>
+        <c:axId val="81056896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13427,7 +13753,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81335808"/>
+        <c:crossAx val="81030144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13438,9 +13764,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.81301817424050749"/>
+          <c:x val="0.8130181742405076"/>
           <c:y val="0.15270161229846271"/>
-          <c:w val="0.17942038908652494"/>
+          <c:w val="0.17942038908652497"/>
           <c:h val="0.27554915635545557"/>
         </c:manualLayout>
       </c:layout>
@@ -13449,7 +13775,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -13465,10 +13791,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.11446951342620634"/>
-          <c:y val="0.1789554056939055"/>
+          <c:x val="0.11446951342620636"/>
+          <c:y val="0.17895540569390553"/>
           <c:w val="0.69581067991501067"/>
-          <c:h val="0.60148739780733151"/>
+          <c:h val="0.6014873978073314"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -14050,11 +14376,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="86966656"/>
-        <c:axId val="90506368"/>
+        <c:axId val="81333632"/>
+        <c:axId val="81339904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="86966656"/>
+        <c:axId val="81333632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14079,21 +14405,21 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.87489745197779478"/>
-              <c:y val="0.83985102420856605"/>
+              <c:x val="0.87489745197779489"/>
+              <c:y val="0.83985102420856617"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90506368"/>
+        <c:crossAx val="81339904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="90506368"/>
+        <c:axId val="81339904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14119,14 +14445,14 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="2.167003163066156E-2"/>
+              <c:x val="2.1670031630661567E-2"/>
               <c:y val="7.1405643672531369E-2"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86966656"/>
+        <c:crossAx val="81333632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14148,7 +14474,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -14165,8 +14491,8 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="8.0348344272716282E-2"/>
-          <c:y val="0.11633824032865457"/>
-          <c:w val="0.77826475256714756"/>
+          <c:y val="0.11633824032865459"/>
+          <c:w val="0.77826475256714778"/>
           <c:h val="0.74651846780022058"/>
         </c:manualLayout>
       </c:layout>
@@ -16081,11 +16407,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="83007744"/>
-        <c:axId val="83013632"/>
+        <c:axId val="81468416"/>
+        <c:axId val="81478784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="83007744"/>
+        <c:axId val="81468416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16110,20 +16436,20 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.88533015096738465"/>
+              <c:x val="0.88533015096738443"/>
               <c:y val="0.86086956521739133"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83013632"/>
+        <c:crossAx val="81478784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83013632"/>
+        <c:axId val="81478784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16153,27 +16479,26 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="2.7736503219415551E-2"/>
+              <c:x val="2.7736503219415554E-2"/>
               <c:y val="6.5055346342576936E-3"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83007744"/>
+        <c:crossAx val="81468416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -17436,24 +17761,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="81441920"/>
-        <c:axId val="81443456"/>
+        <c:axId val="81636352"/>
+        <c:axId val="81564416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="81441920"/>
+        <c:axId val="81636352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81443456"/>
+        <c:crossAx val="81564416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81443456"/>
+        <c:axId val="81564416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17461,7 +17786,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81441920"/>
+        <c:crossAx val="81636352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17473,7 +17798,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -17514,10 +17839,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="3.7745175470087523E-2"/>
+          <c:x val="3.7745175470087537E-2"/>
           <c:y val="0.2088079615048119"/>
           <c:w val="0.77413482889106944"/>
-          <c:h val="0.71664333624963572"/>
+          <c:h val="0.71664333624963583"/>
         </c:manualLayout>
       </c:layout>
       <c:areaChart>
@@ -17866,8 +18191,8 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="81291904"/>
-        <c:axId val="81290368"/>
+        <c:axId val="81662720"/>
+        <c:axId val="81652736"/>
       </c:areaChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -18901,56 +19226,56 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="81284480"/>
-        <c:axId val="81282944"/>
+        <c:axId val="81651200"/>
+        <c:axId val="81649664"/>
       </c:lineChart>
       <c:valAx>
-        <c:axId val="81282944"/>
+        <c:axId val="81649664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81284480"/>
+        <c:crossAx val="81651200"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="81284480"/>
+        <c:axId val="81651200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81282944"/>
+        <c:crossAx val="81649664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81290368"/>
+        <c:axId val="81652736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81291904"/>
+        <c:crossAx val="81662720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="81291904"/>
+        <c:axId val="81662720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81290368"/>
+        <c:crossAx val="81652736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18965,7 +19290,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -19997,24 +20322,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="81526784"/>
-        <c:axId val="81528320"/>
+        <c:axId val="81704832"/>
+        <c:axId val="81706368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="81526784"/>
+        <c:axId val="81704832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81528320"/>
+        <c:crossAx val="81706368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81528320"/>
+        <c:axId val="81706368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20022,7 +20347,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81526784"/>
+        <c:crossAx val="81704832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -20034,7 +20359,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -20052,9 +20377,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="8.636151189362401E-2"/>
-          <c:y val="0.19267527722176278"/>
-          <c:w val="0.77458184058599366"/>
-          <c:h val="0.69577429824480774"/>
+          <c:y val="0.19267527722176275"/>
+          <c:w val="0.77458184058599377"/>
+          <c:h val="0.69577429824480785"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -20807,11 +21132,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="81550720"/>
-        <c:axId val="81581568"/>
+        <c:axId val="81765888"/>
+        <c:axId val="81767808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="81550720"/>
+        <c:axId val="81765888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20836,8 +21161,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.91085127808811739"/>
-              <c:y val="0.89353537724496479"/>
+              <c:x val="0.91085127808811761"/>
+              <c:y val="0.89353537724496468"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
@@ -20852,14 +21177,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81581568"/>
+        <c:crossAx val="81767808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81581568"/>
+        <c:axId val="81767808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20867,14 +21192,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81550720"/>
+        <c:crossAx val="81765888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -20890,7 +21214,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -20908,7 +21232,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="6.5909464458871164E-2"/>
-          <c:y val="0.13508084805461493"/>
+          <c:y val="0.1350808480546149"/>
           <c:w val="0.8299807486144406"/>
           <c:h val="0.73647641195109681"/>
         </c:manualLayout>
@@ -30882,11 +31206,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="161482624"/>
-        <c:axId val="161499392"/>
+        <c:axId val="81816960"/>
+        <c:axId val="81827328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="161482624"/>
+        <c:axId val="81816960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -30911,20 +31235,20 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.91123570008786825"/>
-              <c:y val="0.91448931116389554"/>
+              <c:x val="0.91123570008786814"/>
+              <c:y val="0.91448931116389565"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161499392"/>
+        <c:crossAx val="81827328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="161499392"/>
+        <c:axId val="81827328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -30954,27 +31278,26 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.0111953773925604E-2"/>
-              <c:y val="5.4752832061795383E-2"/>
+              <c:x val="1.0111953773925602E-2"/>
+              <c:y val="5.475283206179539E-2"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161482624"/>
+        <c:crossAx val="81816960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -32000,15 +32323,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:colOff>419100</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -32022,6 +32345,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -32747,14 +33100,14 @@
       <c r="G50" s="1">
         <v>1</v>
       </c>
-      <c r="H50" s="16"/>
-      <c r="I50" s="17"/>
-      <c r="J50" s="17"/>
-      <c r="K50" s="17"/>
-      <c r="L50" s="17"/>
-      <c r="M50" s="17"/>
-      <c r="N50" s="17"/>
-      <c r="O50" s="18"/>
+      <c r="H50" s="32"/>
+      <c r="I50" s="33"/>
+      <c r="J50" s="33"/>
+      <c r="K50" s="33"/>
+      <c r="L50" s="33"/>
+      <c r="M50" s="33"/>
+      <c r="N50" s="33"/>
+      <c r="O50" s="34"/>
     </row>
     <row r="51" spans="1:15" ht="15" customHeight="1">
       <c r="A51" s="5" t="s">
@@ -32778,11 +33131,11 @@
       <c r="H51" s="10"/>
       <c r="I51" s="12"/>
       <c r="J51" s="12"/>
-      <c r="K51" s="19"/>
+      <c r="K51" s="26"/>
       <c r="L51" s="12"/>
-      <c r="M51" s="19"/>
-      <c r="N51" s="19"/>
-      <c r="O51" s="19"/>
+      <c r="M51" s="26"/>
+      <c r="N51" s="26"/>
+      <c r="O51" s="26"/>
     </row>
     <row r="52" spans="1:15" ht="15" customHeight="1" thickBot="1">
       <c r="A52" s="5" t="s">
@@ -32806,11 +33159,11 @@
       <c r="H52" s="15"/>
       <c r="I52" s="13"/>
       <c r="J52" s="13"/>
-      <c r="K52" s="20"/>
+      <c r="K52" s="27"/>
       <c r="L52" s="13"/>
-      <c r="M52" s="20"/>
-      <c r="N52" s="20"/>
-      <c r="O52" s="20"/>
+      <c r="M52" s="27"/>
+      <c r="N52" s="27"/>
+      <c r="O52" s="27"/>
     </row>
     <row r="53" spans="1:15" ht="18.75" customHeight="1" thickBot="1">
       <c r="A53" s="5" t="s">
@@ -33337,16 +33690,16 @@
       <c r="E77" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H77" s="16" t="s">
+      <c r="H77" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="I77" s="17"/>
-      <c r="J77" s="17"/>
-      <c r="K77" s="17"/>
-      <c r="L77" s="17"/>
-      <c r="M77" s="17"/>
-      <c r="N77" s="17"/>
-      <c r="O77" s="18"/>
+      <c r="I77" s="33"/>
+      <c r="J77" s="33"/>
+      <c r="K77" s="33"/>
+      <c r="L77" s="33"/>
+      <c r="M77" s="33"/>
+      <c r="N77" s="33"/>
+      <c r="O77" s="34"/>
     </row>
     <row r="78" spans="1:15" ht="25.5">
       <c r="A78" s="5" t="s">
@@ -33373,19 +33726,19 @@
       <c r="J78" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="K78" s="19" t="s">
+      <c r="K78" s="26" t="s">
         <v>107</v>
       </c>
       <c r="L78" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="M78" s="19" t="s">
+      <c r="M78" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="N78" s="19" t="s">
+      <c r="N78" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="O78" s="19" t="s">
+      <c r="O78" s="26" t="s">
         <v>107</v>
       </c>
     </row>
@@ -33414,13 +33767,13 @@
       <c r="J79" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="K79" s="20"/>
+      <c r="K79" s="27"/>
       <c r="L79" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="M79" s="20"/>
-      <c r="N79" s="20"/>
-      <c r="O79" s="20"/>
+      <c r="M79" s="27"/>
+      <c r="N79" s="27"/>
+      <c r="O79" s="27"/>
     </row>
     <row r="80" spans="1:15" ht="19.5" customHeight="1">
       <c r="A80" s="5" t="s">
@@ -33438,13 +33791,13 @@
       <c r="E80" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H80" s="26" t="s">
+      <c r="H80" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="I80" s="28">
+      <c r="I80" s="30">
         <v>1</v>
       </c>
-      <c r="J80" s="28">
+      <c r="J80" s="30">
         <v>85</v>
       </c>
       <c r="K80" s="21"/>
@@ -33469,9 +33822,9 @@
       <c r="E81" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H81" s="27"/>
-      <c r="I81" s="29"/>
-      <c r="J81" s="29"/>
+      <c r="H81" s="29"/>
+      <c r="I81" s="31"/>
+      <c r="J81" s="31"/>
       <c r="K81" s="22"/>
       <c r="L81" s="22"/>
       <c r="M81" s="22"/>
@@ -33900,20 +34253,6 @@
     <sortCondition ref="D40:D61"/>
   </sortState>
   <mergeCells count="26">
-    <mergeCell ref="N80:N81"/>
-    <mergeCell ref="O80:O81"/>
-    <mergeCell ref="I98:K98"/>
-    <mergeCell ref="M98:O98"/>
-    <mergeCell ref="K78:K79"/>
-    <mergeCell ref="M78:M79"/>
-    <mergeCell ref="N78:N79"/>
-    <mergeCell ref="O78:O79"/>
-    <mergeCell ref="M80:M81"/>
-    <mergeCell ref="H80:H81"/>
-    <mergeCell ref="I80:I81"/>
-    <mergeCell ref="J80:J81"/>
-    <mergeCell ref="K80:K81"/>
-    <mergeCell ref="L80:L81"/>
     <mergeCell ref="H77:O77"/>
     <mergeCell ref="H50:O50"/>
     <mergeCell ref="K51:K52"/>
@@ -33926,6 +34265,20 @@
     <mergeCell ref="O53:O54"/>
     <mergeCell ref="I71:K71"/>
     <mergeCell ref="M71:O71"/>
+    <mergeCell ref="H80:H81"/>
+    <mergeCell ref="I80:I81"/>
+    <mergeCell ref="J80:J81"/>
+    <mergeCell ref="K80:K81"/>
+    <mergeCell ref="L80:L81"/>
+    <mergeCell ref="N80:N81"/>
+    <mergeCell ref="O80:O81"/>
+    <mergeCell ref="I98:K98"/>
+    <mergeCell ref="M98:O98"/>
+    <mergeCell ref="K78:K79"/>
+    <mergeCell ref="M78:M79"/>
+    <mergeCell ref="N78:N79"/>
+    <mergeCell ref="O78:O79"/>
+    <mergeCell ref="M80:M81"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -37097,22 +37450,22 @@
         <v>5</v>
       </c>
       <c r="H56">
-        <f>G56*G56*G56</f>
+        <f t="shared" ref="H56:H73" si="0">G56*G56*G56</f>
         <v>125</v>
       </c>
       <c r="I56">
         <v>2908</v>
       </c>
       <c r="J56">
-        <f>SUM(D31:E31)</f>
+        <f t="shared" ref="J56:J73" si="1">SUM(D31:E31)</f>
         <v>3497</v>
       </c>
       <c r="K56">
-        <f>SUM(G31:J31)</f>
+        <f t="shared" ref="K56:K73" si="2">SUM(G31:J31)</f>
         <v>4765</v>
       </c>
       <c r="L56">
-        <f>SUM(L31:S31)</f>
+        <f t="shared" ref="L56:L73" si="3">SUM(L31:S31)</f>
         <v>4613</v>
       </c>
     </row>
@@ -37121,22 +37474,22 @@
         <v>6</v>
       </c>
       <c r="H57">
-        <f>G57*G57*G57</f>
+        <f t="shared" si="0"/>
         <v>216</v>
       </c>
       <c r="I57">
         <v>3334</v>
       </c>
       <c r="J57">
-        <f>SUM(D32:E32)</f>
+        <f t="shared" si="1"/>
         <v>5490</v>
       </c>
       <c r="K57">
-        <f>SUM(G32:J32)</f>
+        <f t="shared" si="2"/>
         <v>4777</v>
       </c>
       <c r="L57">
-        <f>SUM(L32:S32)</f>
+        <f t="shared" si="3"/>
         <v>4632</v>
       </c>
     </row>
@@ -37145,22 +37498,22 @@
         <v>7</v>
       </c>
       <c r="H58">
-        <f>G58*G58*G58</f>
+        <f t="shared" si="0"/>
         <v>343</v>
       </c>
       <c r="I58">
         <v>3038</v>
       </c>
       <c r="J58">
-        <f>SUM(D33:E33)</f>
+        <f t="shared" si="1"/>
         <v>5029</v>
       </c>
       <c r="K58">
-        <f>SUM(G33:J33)</f>
+        <f t="shared" si="2"/>
         <v>4572</v>
       </c>
       <c r="L58">
-        <f>SUM(L33:S33)</f>
+        <f t="shared" si="3"/>
         <v>4586</v>
       </c>
     </row>
@@ -37169,22 +37522,22 @@
         <v>8</v>
       </c>
       <c r="H59">
-        <f>G59*G59*G59</f>
+        <f t="shared" si="0"/>
         <v>512</v>
       </c>
       <c r="I59">
         <v>3017</v>
       </c>
       <c r="J59">
-        <f>SUM(D34:E34)</f>
+        <f t="shared" si="1"/>
         <v>4315</v>
       </c>
       <c r="K59">
-        <f>SUM(G34:J34)</f>
+        <f t="shared" si="2"/>
         <v>4733</v>
       </c>
       <c r="L59">
-        <f>SUM(L34:S34)</f>
+        <f t="shared" si="3"/>
         <v>4269</v>
       </c>
     </row>
@@ -37193,22 +37546,22 @@
         <v>9</v>
       </c>
       <c r="H60">
-        <f>G60*G60*G60</f>
+        <f t="shared" si="0"/>
         <v>729</v>
       </c>
       <c r="I60">
         <v>2881</v>
       </c>
       <c r="J60">
-        <f>SUM(D35:E35)</f>
+        <f t="shared" si="1"/>
         <v>4642</v>
       </c>
       <c r="K60">
-        <f>SUM(G35:J35)</f>
+        <f t="shared" si="2"/>
         <v>4327</v>
       </c>
       <c r="L60">
-        <f>SUM(L35:S35)</f>
+        <f t="shared" si="3"/>
         <v>4279</v>
       </c>
     </row>
@@ -37217,22 +37570,22 @@
         <v>10</v>
       </c>
       <c r="H61">
-        <f>G61*G61*G61</f>
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
       <c r="I61">
         <v>3108</v>
       </c>
       <c r="J61">
-        <f>SUM(D36:E36)</f>
+        <f t="shared" si="1"/>
         <v>4812</v>
       </c>
       <c r="K61">
-        <f>SUM(G36:J36)</f>
+        <f t="shared" si="2"/>
         <v>4528</v>
       </c>
       <c r="L61">
-        <f>SUM(L36:S36)</f>
+        <f t="shared" si="3"/>
         <v>4273</v>
       </c>
     </row>
@@ -37241,22 +37594,22 @@
         <v>11</v>
       </c>
       <c r="H62">
-        <f>G62*G62*G62</f>
+        <f t="shared" si="0"/>
         <v>1331</v>
       </c>
       <c r="I62">
         <v>3074</v>
       </c>
       <c r="J62">
-        <f>SUM(D37:E37)</f>
+        <f t="shared" si="1"/>
         <v>4405</v>
       </c>
       <c r="K62">
-        <f>SUM(G37:J37)</f>
+        <f t="shared" si="2"/>
         <v>4380</v>
       </c>
       <c r="L62">
-        <f>SUM(L37:S37)</f>
+        <f t="shared" si="3"/>
         <v>4318</v>
       </c>
     </row>
@@ -37265,22 +37618,22 @@
         <v>12</v>
       </c>
       <c r="H63">
-        <f>G63*G63*G63</f>
+        <f t="shared" si="0"/>
         <v>1728</v>
       </c>
       <c r="I63">
         <v>3074</v>
       </c>
       <c r="J63">
-        <f>SUM(D38:E38)</f>
+        <f t="shared" si="1"/>
         <v>5252</v>
       </c>
       <c r="K63">
-        <f>SUM(G38:J38)</f>
+        <f t="shared" si="2"/>
         <v>4510</v>
       </c>
       <c r="L63">
-        <f>SUM(L38:S38)</f>
+        <f t="shared" si="3"/>
         <v>4239</v>
       </c>
     </row>
@@ -37289,22 +37642,22 @@
         <v>13</v>
       </c>
       <c r="H64">
-        <f>G64*G64*G64</f>
+        <f t="shared" si="0"/>
         <v>2197</v>
       </c>
       <c r="I64">
         <v>2748</v>
       </c>
       <c r="J64">
-        <f>SUM(D39:E39)</f>
+        <f t="shared" si="1"/>
         <v>4599</v>
       </c>
       <c r="K64">
-        <f>SUM(G39:J39)</f>
+        <f t="shared" si="2"/>
         <v>4404</v>
       </c>
       <c r="L64">
-        <f>SUM(L39:S39)</f>
+        <f t="shared" si="3"/>
         <v>4320</v>
       </c>
     </row>
@@ -37313,22 +37666,22 @@
         <v>14</v>
       </c>
       <c r="H65">
-        <f>G65*G65*G65</f>
+        <f t="shared" si="0"/>
         <v>2744</v>
       </c>
       <c r="I65">
         <v>3006</v>
       </c>
       <c r="J65">
-        <f>SUM(D40:E40)</f>
+        <f t="shared" si="1"/>
         <v>4315</v>
       </c>
       <c r="K65">
-        <f>SUM(G40:J40)</f>
+        <f t="shared" si="2"/>
         <v>4299</v>
       </c>
       <c r="L65">
-        <f>SUM(L40:S40)</f>
+        <f t="shared" si="3"/>
         <v>4303</v>
       </c>
     </row>
@@ -37337,22 +37690,22 @@
         <v>15</v>
       </c>
       <c r="H66">
-        <f>G66*G66*G66</f>
+        <f t="shared" si="0"/>
         <v>3375</v>
       </c>
       <c r="I66">
         <v>3100</v>
       </c>
       <c r="J66">
-        <f>SUM(D41:E41)</f>
+        <f t="shared" si="1"/>
         <v>5078</v>
       </c>
       <c r="K66">
-        <f>SUM(G41:J41)</f>
+        <f t="shared" si="2"/>
         <v>4084</v>
       </c>
       <c r="L66">
-        <f>SUM(L41:S41)</f>
+        <f t="shared" si="3"/>
         <v>4272</v>
       </c>
     </row>
@@ -37361,22 +37714,22 @@
         <v>16</v>
       </c>
       <c r="H67">
-        <f>G67*G67*G67</f>
+        <f t="shared" si="0"/>
         <v>4096</v>
       </c>
       <c r="I67">
         <v>3058</v>
       </c>
       <c r="J67">
-        <f>SUM(D42:E42)</f>
+        <f t="shared" si="1"/>
         <v>5087</v>
       </c>
       <c r="K67">
-        <f>SUM(G42:J42)</f>
+        <f t="shared" si="2"/>
         <v>3943</v>
       </c>
       <c r="L67">
-        <f>SUM(L42:S42)</f>
+        <f t="shared" si="3"/>
         <v>4290</v>
       </c>
     </row>
@@ -37385,22 +37738,22 @@
         <v>17</v>
       </c>
       <c r="H68">
-        <f>G68*G68*G68</f>
+        <f t="shared" si="0"/>
         <v>4913</v>
       </c>
       <c r="I68">
         <v>3108</v>
       </c>
       <c r="J68">
-        <f>SUM(D43:E43)</f>
+        <f t="shared" si="1"/>
         <v>4956</v>
       </c>
       <c r="K68">
-        <f>SUM(G43:J43)</f>
+        <f t="shared" si="2"/>
         <v>4464</v>
       </c>
       <c r="L68">
-        <f>SUM(L43:S43)</f>
+        <f t="shared" si="3"/>
         <v>4205</v>
       </c>
     </row>
@@ -37409,22 +37762,22 @@
         <v>18</v>
       </c>
       <c r="H69">
-        <f>G69*G69*G69</f>
+        <f t="shared" si="0"/>
         <v>5832</v>
       </c>
       <c r="I69">
         <v>3079</v>
       </c>
       <c r="J69">
-        <f>SUM(D44:E44)</f>
+        <f t="shared" si="1"/>
         <v>4754</v>
       </c>
       <c r="K69">
-        <f>SUM(G44:J44)</f>
+        <f t="shared" si="2"/>
         <v>4568</v>
       </c>
       <c r="L69">
-        <f>SUM(L44:S44)</f>
+        <f t="shared" si="3"/>
         <v>4222</v>
       </c>
     </row>
@@ -37433,22 +37786,22 @@
         <v>19</v>
       </c>
       <c r="H70">
-        <f>G70*G70*G70</f>
+        <f t="shared" si="0"/>
         <v>6859</v>
       </c>
       <c r="I70">
         <v>3034</v>
       </c>
       <c r="J70">
-        <f>SUM(D45:E45)</f>
+        <f t="shared" si="1"/>
         <v>4815</v>
       </c>
       <c r="K70">
-        <f>SUM(G45:J45)</f>
+        <f t="shared" si="2"/>
         <v>4024</v>
       </c>
       <c r="L70">
-        <f>SUM(L45:S45)</f>
+        <f t="shared" si="3"/>
         <v>4247</v>
       </c>
     </row>
@@ -37457,22 +37810,22 @@
         <v>20</v>
       </c>
       <c r="H71">
-        <f>G71*G71*G71</f>
+        <f t="shared" si="0"/>
         <v>8000</v>
       </c>
       <c r="I71">
         <v>3080</v>
       </c>
       <c r="J71">
-        <f>SUM(D46:E46)</f>
+        <f t="shared" si="1"/>
         <v>4650</v>
       </c>
       <c r="K71">
-        <f>SUM(G46:J46)</f>
+        <f t="shared" si="2"/>
         <v>4028</v>
       </c>
       <c r="L71">
-        <f>SUM(L46:S46)</f>
+        <f t="shared" si="3"/>
         <v>4212</v>
       </c>
     </row>
@@ -37481,22 +37834,22 @@
         <v>21</v>
       </c>
       <c r="H72">
-        <f>G72*G72*G72</f>
+        <f t="shared" si="0"/>
         <v>9261</v>
       </c>
       <c r="I72">
         <v>2938</v>
       </c>
       <c r="J72">
-        <f>SUM(D47:E47)</f>
+        <f t="shared" si="1"/>
         <v>4880</v>
       </c>
       <c r="K72">
-        <f>SUM(G47:J47)</f>
+        <f t="shared" si="2"/>
         <v>4092</v>
       </c>
       <c r="L72">
-        <f>SUM(L47:S47)</f>
+        <f t="shared" si="3"/>
         <v>4188</v>
       </c>
     </row>
@@ -37505,22 +37858,22 @@
         <v>22</v>
       </c>
       <c r="H73">
-        <f>G73*G73*G73</f>
+        <f t="shared" si="0"/>
         <v>10648</v>
       </c>
       <c r="I73">
         <v>3047</v>
       </c>
       <c r="J73">
-        <f>SUM(D48:E48)</f>
+        <f t="shared" si="1"/>
         <v>5073</v>
       </c>
       <c r="K73">
-        <f>SUM(G48:J48)</f>
+        <f t="shared" si="2"/>
         <v>4044</v>
       </c>
       <c r="L73">
-        <f>SUM(L48:S48)</f>
+        <f t="shared" si="3"/>
         <v>4211</v>
       </c>
     </row>
@@ -37569,7 +37922,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <f>D2*50</f>
+        <f t="shared" ref="C2:C33" si="0">D2*50</f>
         <v>0</v>
       </c>
       <c r="D2">
@@ -37596,7 +37949,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <f>D3*50</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D3">
@@ -37623,7 +37976,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <f>D4*50</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D4">
@@ -37650,7 +38003,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <f>D5*50</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D5">
@@ -37677,7 +38030,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <f>D6*50</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D6">
@@ -37704,7 +38057,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <f>D7*50</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D7">
@@ -37731,7 +38084,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <f>D8*50</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D8">
@@ -37758,7 +38111,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <f>D9*50</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D9">
@@ -37785,7 +38138,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <f>D10*50</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D10">
@@ -37812,7 +38165,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <f>D11*50</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D11">
@@ -37839,7 +38192,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <f>D12*50</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D12">
@@ -37866,7 +38219,7 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <f>D13*50</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D13">
@@ -37893,7 +38246,7 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <f>D14*50</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D14">
@@ -37920,7 +38273,7 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <f>D15*50</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D15">
@@ -37947,7 +38300,7 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <f>D16*50</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D16">
@@ -37974,7 +38327,7 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <f>D17*50</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D17">
@@ -38001,7 +38354,7 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <f>D18*50</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D18">
@@ -38028,7 +38381,7 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <f>D19*50</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D19">
@@ -38055,7 +38408,7 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <f>D20*50</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D20">
@@ -38082,7 +38435,7 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <f>D21*50</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D21">
@@ -38109,7 +38462,7 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <f>D22*50</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D22">
@@ -38136,7 +38489,7 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <f>D23*50</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D23">
@@ -38163,7 +38516,7 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <f>D24*50</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D24">
@@ -38190,7 +38543,7 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <f>D25*50</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D25">
@@ -38217,7 +38570,7 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <f>D26*50</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D26">
@@ -38244,7 +38597,7 @@
         <v>228</v>
       </c>
       <c r="C27">
-        <f>D27*50</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D27">
@@ -38271,7 +38624,7 @@
         <v>228</v>
       </c>
       <c r="C28">
-        <f>D28*50</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D28">
@@ -38298,7 +38651,7 @@
         <v>228</v>
       </c>
       <c r="C29">
-        <f>D29*50</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D29">
@@ -38325,7 +38678,7 @@
         <v>228</v>
       </c>
       <c r="C30">
-        <f>D30*50</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D30">
@@ -38352,7 +38705,7 @@
         <v>228</v>
       </c>
       <c r="C31">
-        <f>D31*50</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D31">
@@ -38379,7 +38732,7 @@
         <v>545</v>
       </c>
       <c r="C32">
-        <f>D32*50</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D32">
@@ -38406,7 +38759,7 @@
         <v>545</v>
       </c>
       <c r="C33">
-        <f>D33*50</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D33">
@@ -38433,7 +38786,7 @@
         <v>545</v>
       </c>
       <c r="C34">
-        <f>D34*50</f>
+        <f t="shared" ref="C34:C65" si="1">D34*50</f>
         <v>0</v>
       </c>
       <c r="D34">
@@ -38460,7 +38813,7 @@
         <v>545</v>
       </c>
       <c r="C35">
-        <f>D35*50</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D35">
@@ -38487,7 +38840,7 @@
         <v>545</v>
       </c>
       <c r="C36">
-        <f>D36*50</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D36">
@@ -38514,7 +38867,7 @@
         <v>1006</v>
       </c>
       <c r="C37">
-        <f>D37*50</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D37">
@@ -38541,7 +38894,7 @@
         <v>1006</v>
       </c>
       <c r="C38">
-        <f>D38*50</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D38">
@@ -38568,7 +38921,7 @@
         <v>1006</v>
       </c>
       <c r="C39">
-        <f>D39*50</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D39">
@@ -38595,7 +38948,7 @@
         <v>1006</v>
       </c>
       <c r="C40">
-        <f>D40*50</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D40">
@@ -38622,7 +38975,7 @@
         <v>1006</v>
       </c>
       <c r="C41">
-        <f>D41*50</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D41">
@@ -38649,7 +39002,7 @@
         <v>1299</v>
       </c>
       <c r="C42">
-        <f>D42*50</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D42">
@@ -38676,7 +39029,7 @@
         <v>1299</v>
       </c>
       <c r="C43">
-        <f>D43*50</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D43">
@@ -38703,7 +39056,7 @@
         <v>1299</v>
       </c>
       <c r="C44">
-        <f>D44*50</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D44">
@@ -38730,7 +39083,7 @@
         <v>1299</v>
       </c>
       <c r="C45">
-        <f>D45*50</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D45">
@@ -38757,7 +39110,7 @@
         <v>1299</v>
       </c>
       <c r="C46">
-        <f>D46*50</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D46">
@@ -38784,7 +39137,7 @@
         <v>1688</v>
       </c>
       <c r="C47">
-        <f>D47*50</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D47">
@@ -38811,7 +39164,7 @@
         <v>1688</v>
       </c>
       <c r="C48">
-        <f>D48*50</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D48">
@@ -38838,7 +39191,7 @@
         <v>1688</v>
       </c>
       <c r="C49">
-        <f>D49*50</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D49">
@@ -38865,7 +39218,7 @@
         <v>1688</v>
       </c>
       <c r="C50">
-        <f>D50*50</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D50">
@@ -38892,7 +39245,7 @@
         <v>1688</v>
       </c>
       <c r="C51">
-        <f>D51*50</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D51">
@@ -38919,7 +39272,7 @@
         <v>1784</v>
       </c>
       <c r="C52">
-        <f>D52*50</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D52">
@@ -38946,7 +39299,7 @@
         <v>1784</v>
       </c>
       <c r="C53">
-        <f>D53*50</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D53">
@@ -38973,7 +39326,7 @@
         <v>1784</v>
       </c>
       <c r="C54">
-        <f>D54*50</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D54">
@@ -39000,7 +39353,7 @@
         <v>1784</v>
       </c>
       <c r="C55">
-        <f>D55*50</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D55">
@@ -39027,7 +39380,7 @@
         <v>1784</v>
       </c>
       <c r="C56">
-        <f>D56*50</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D56">
@@ -39054,7 +39407,7 @@
         <v>2100</v>
       </c>
       <c r="C57">
-        <f>D57*50</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D57">
@@ -39081,7 +39434,7 @@
         <v>2100</v>
       </c>
       <c r="C58">
-        <f>D58*50</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D58">
@@ -39108,7 +39461,7 @@
         <v>2100</v>
       </c>
       <c r="C59">
-        <f>D59*50</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D59">
@@ -39135,7 +39488,7 @@
         <v>2100</v>
       </c>
       <c r="C60">
-        <f>D60*50</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D60">
@@ -39162,7 +39515,7 @@
         <v>2100</v>
       </c>
       <c r="C61">
-        <f>D61*50</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D61">
@@ -39189,7 +39542,7 @@
         <v>2388</v>
       </c>
       <c r="C62">
-        <f>D62*50</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D62">
@@ -39216,7 +39569,7 @@
         <v>2388</v>
       </c>
       <c r="C63">
-        <f>D63*50</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D63">
@@ -39243,7 +39596,7 @@
         <v>2388</v>
       </c>
       <c r="C64">
-        <f>D64*50</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D64">
@@ -39270,7 +39623,7 @@
         <v>2388</v>
       </c>
       <c r="C65">
-        <f>D65*50</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D65">
@@ -39297,7 +39650,7 @@
         <v>2388</v>
       </c>
       <c r="C66">
-        <f>D66*50</f>
+        <f t="shared" ref="C66:C97" si="2">D66*50</f>
         <v>0</v>
       </c>
       <c r="D66">
@@ -39324,7 +39677,7 @@
         <v>2477</v>
       </c>
       <c r="C67">
-        <f>D67*50</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D67">
@@ -39351,7 +39704,7 @@
         <v>2477</v>
       </c>
       <c r="C68">
-        <f>D68*50</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D68">
@@ -39378,7 +39731,7 @@
         <v>2477</v>
       </c>
       <c r="C69">
-        <f>D69*50</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D69">
@@ -39405,7 +39758,7 @@
         <v>2477</v>
       </c>
       <c r="C70">
-        <f>D70*50</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D70">
@@ -39432,7 +39785,7 @@
         <v>2477</v>
       </c>
       <c r="C71">
-        <f>D71*50</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D71">
@@ -39459,7 +39812,7 @@
         <v>2760</v>
       </c>
       <c r="C72">
-        <f>D72*50</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D72">
@@ -39486,7 +39839,7 @@
         <v>2760</v>
       </c>
       <c r="C73">
-        <f>D73*50</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D73">
@@ -39513,7 +39866,7 @@
         <v>2760</v>
       </c>
       <c r="C74">
-        <f>D74*50</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D74">
@@ -39540,7 +39893,7 @@
         <v>2760</v>
       </c>
       <c r="C75">
-        <f>D75*50</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D75">
@@ -39567,7 +39920,7 @@
         <v>2760</v>
       </c>
       <c r="C76">
-        <f>D76*50</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D76">
@@ -39594,7 +39947,7 @@
         <v>2965</v>
       </c>
       <c r="C77">
-        <f>D77*50</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D77">
@@ -39621,7 +39974,7 @@
         <v>2965</v>
       </c>
       <c r="C78">
-        <f>D78*50</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D78">
@@ -39648,7 +40001,7 @@
         <v>2965</v>
       </c>
       <c r="C79">
-        <f>D79*50</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D79">
@@ -39675,7 +40028,7 @@
         <v>2965</v>
       </c>
       <c r="C80">
-        <f>D80*50</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D80">
@@ -39702,7 +40055,7 @@
         <v>2965</v>
       </c>
       <c r="C81">
-        <f>D81*50</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D81">
@@ -39729,7 +40082,7 @@
         <v>2946</v>
       </c>
       <c r="C82">
-        <f>D82*50</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D82">
@@ -39756,7 +40109,7 @@
         <v>2946</v>
       </c>
       <c r="C83">
-        <f>D83*50</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D83">
@@ -39783,7 +40136,7 @@
         <v>2946</v>
       </c>
       <c r="C84">
-        <f>D84*50</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D84">
@@ -39810,7 +40163,7 @@
         <v>2946</v>
       </c>
       <c r="C85">
-        <f>D85*50</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D85">
@@ -39837,7 +40190,7 @@
         <v>2946</v>
       </c>
       <c r="C86">
-        <f>D86*50</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D86">
@@ -39864,7 +40217,7 @@
         <v>3193</v>
       </c>
       <c r="C87">
-        <f>D87*50</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D87">
@@ -39891,7 +40244,7 @@
         <v>3193</v>
       </c>
       <c r="C88">
-        <f>D88*50</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D88">
@@ -39918,7 +40271,7 @@
         <v>3193</v>
       </c>
       <c r="C89">
-        <f>D89*50</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D89">
@@ -39945,7 +40298,7 @@
         <v>3193</v>
       </c>
       <c r="C90">
-        <f>D90*50</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D90">
@@ -39972,7 +40325,7 @@
         <v>3193</v>
       </c>
       <c r="C91">
-        <f>D91*50</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D91">
@@ -39999,7 +40352,7 @@
         <v>3392</v>
       </c>
       <c r="C92">
-        <f>D92*50</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D92">
@@ -40026,7 +40379,7 @@
         <v>3392</v>
       </c>
       <c r="C93">
-        <f>D93*50</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D93">
@@ -40053,7 +40406,7 @@
         <v>3392</v>
       </c>
       <c r="C94">
-        <f>D94*50</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D94">
@@ -40080,7 +40433,7 @@
         <v>3392</v>
       </c>
       <c r="C95">
-        <f>D95*50</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D95">
@@ -40107,7 +40460,7 @@
         <v>3392</v>
       </c>
       <c r="C96">
-        <f>D96*50</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D96">
@@ -40134,7 +40487,7 @@
         <v>3279</v>
       </c>
       <c r="C97">
-        <f>D97*50</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D97">
@@ -40161,7 +40514,7 @@
         <v>3279</v>
       </c>
       <c r="C98">
-        <f>D98*50</f>
+        <f t="shared" ref="C98:C129" si="3">D98*50</f>
         <v>0</v>
       </c>
       <c r="D98">
@@ -40188,7 +40541,7 @@
         <v>3279</v>
       </c>
       <c r="C99">
-        <f>D99*50</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D99">
@@ -40215,7 +40568,7 @@
         <v>3279</v>
       </c>
       <c r="C100">
-        <f>D100*50</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D100">
@@ -40242,7 +40595,7 @@
         <v>3279</v>
       </c>
       <c r="C101">
-        <f>D101*50</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D101">
@@ -40269,7 +40622,7 @@
         <v>3363</v>
       </c>
       <c r="C102">
-        <f>D102*50</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D102">
@@ -40296,7 +40649,7 @@
         <v>3363</v>
       </c>
       <c r="C103">
-        <f>D103*50</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D103">
@@ -40323,7 +40676,7 @@
         <v>3363</v>
       </c>
       <c r="C104">
-        <f>D104*50</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D104">
@@ -40350,7 +40703,7 @@
         <v>3363</v>
       </c>
       <c r="C105">
-        <f>D105*50</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D105">
@@ -40377,7 +40730,7 @@
         <v>3363</v>
       </c>
       <c r="C106">
-        <f>D106*50</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D106">
@@ -40404,7 +40757,7 @@
         <v>3535</v>
       </c>
       <c r="C107">
-        <f>D107*50</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D107">
@@ -40431,7 +40784,7 @@
         <v>3535</v>
       </c>
       <c r="C108">
-        <f>D108*50</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D108">
@@ -40458,7 +40811,7 @@
         <v>3535</v>
       </c>
       <c r="C109">
-        <f>D109*50</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D109">
@@ -40485,7 +40838,7 @@
         <v>3535</v>
       </c>
       <c r="C110">
-        <f>D110*50</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D110">
@@ -40512,7 +40865,7 @@
         <v>3535</v>
       </c>
       <c r="C111">
-        <f>D111*50</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D111">
@@ -40539,7 +40892,7 @@
         <v>3724</v>
       </c>
       <c r="C112">
-        <f>D112*50</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D112">
@@ -40566,7 +40919,7 @@
         <v>3724</v>
       </c>
       <c r="C113">
-        <f>D113*50</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D113">
@@ -40593,7 +40946,7 @@
         <v>3724</v>
       </c>
       <c r="C114">
-        <f>D114*50</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D114">
@@ -40620,7 +40973,7 @@
         <v>3724</v>
       </c>
       <c r="C115">
-        <f>D115*50</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D115">
@@ -40647,7 +41000,7 @@
         <v>3724</v>
       </c>
       <c r="C116">
-        <f>D116*50</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D116">
@@ -40674,7 +41027,7 @@
         <v>3701</v>
       </c>
       <c r="C117">
-        <f>D117*50</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D117">
@@ -40701,7 +41054,7 @@
         <v>3701</v>
       </c>
       <c r="C118">
-        <f>D118*50</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D118">
@@ -40728,7 +41081,7 @@
         <v>3701</v>
       </c>
       <c r="C119">
-        <f>D119*50</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D119">
@@ -40755,7 +41108,7 @@
         <v>3701</v>
       </c>
       <c r="C120">
-        <f>D120*50</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D120">
@@ -40782,7 +41135,7 @@
         <v>3701</v>
       </c>
       <c r="C121">
-        <f>D121*50</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D121">
@@ -40809,7 +41162,7 @@
         <v>3674</v>
       </c>
       <c r="C122">
-        <f>D122*50</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D122">
@@ -40836,7 +41189,7 @@
         <v>3674</v>
       </c>
       <c r="C123">
-        <f>D123*50</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D123">
@@ -40863,7 +41216,7 @@
         <v>3674</v>
       </c>
       <c r="C124">
-        <f>D124*50</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D124">
@@ -40890,7 +41243,7 @@
         <v>3674</v>
       </c>
       <c r="C125">
-        <f>D125*50</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D125">
@@ -40917,7 +41270,7 @@
         <v>3674</v>
       </c>
       <c r="C126">
-        <f>D126*50</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D126">
@@ -40944,7 +41297,7 @@
         <v>3798</v>
       </c>
       <c r="C127">
-        <f>D127*50</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D127">
@@ -40971,7 +41324,7 @@
         <v>3798</v>
       </c>
       <c r="C128">
-        <f>D128*50</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D128">
@@ -40998,7 +41351,7 @@
         <v>3798</v>
       </c>
       <c r="C129">
-        <f>D129*50</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D129">
@@ -41025,7 +41378,7 @@
         <v>3798</v>
       </c>
       <c r="C130">
-        <f>D130*50</f>
+        <f t="shared" ref="C130:C161" si="4">D130*50</f>
         <v>0</v>
       </c>
       <c r="D130">
@@ -41052,7 +41405,7 @@
         <v>3798</v>
       </c>
       <c r="C131">
-        <f>D131*50</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D131">
@@ -41079,7 +41432,7 @@
         <v>3922</v>
       </c>
       <c r="C132">
-        <f>D132*50</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D132">
@@ -41106,7 +41459,7 @@
         <v>3922</v>
       </c>
       <c r="C133">
-        <f>D133*50</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D133">
@@ -41133,7 +41486,7 @@
         <v>3922</v>
       </c>
       <c r="C134">
-        <f>D134*50</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D134">
@@ -41160,7 +41513,7 @@
         <v>3922</v>
       </c>
       <c r="C135">
-        <f>D135*50</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D135">
@@ -41187,7 +41540,7 @@
         <v>3922</v>
       </c>
       <c r="C136">
-        <f t="shared" ref="C136:C141" si="0">D136*50</f>
+        <f t="shared" ref="C136:C141" si="5">D136*50</f>
         <v>0</v>
       </c>
       <c r="D136">
@@ -41214,7 +41567,7 @@
         <v>3922</v>
       </c>
       <c r="C137">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D137">
@@ -41241,7 +41594,7 @@
         <v>4033</v>
       </c>
       <c r="C138">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D138">
@@ -41268,7 +41621,7 @@
         <v>4033</v>
       </c>
       <c r="C139">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D139">
@@ -41295,7 +41648,7 @@
         <v>4033</v>
       </c>
       <c r="C140">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D140">
@@ -41322,7 +41675,7 @@
         <v>4033</v>
       </c>
       <c r="C141">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D141">
@@ -41349,8 +41702,8 @@
         <v>4033</v>
       </c>
       <c r="C142">
-        <f t="shared" ref="C142:C201" ca="1" si="1">INT(D142*50+RAND()*25)</f>
-        <v>220</v>
+        <f t="shared" ref="C142:C201" ca="1" si="6">INT(D142*50+RAND()*25)</f>
+        <v>216</v>
       </c>
       <c r="D142">
         <v>4</v>
@@ -41376,8 +41729,8 @@
         <v>3873</v>
       </c>
       <c r="C143">
-        <f t="shared" ca="1" si="1"/>
-        <v>205</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>216</v>
       </c>
       <c r="D143">
         <v>4</v>
@@ -41403,8 +41756,8 @@
         <v>3873</v>
       </c>
       <c r="C144">
-        <f t="shared" ca="1" si="1"/>
-        <v>224</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>222</v>
       </c>
       <c r="D144">
         <v>4</v>
@@ -41430,8 +41783,8 @@
         <v>3873</v>
       </c>
       <c r="C145">
-        <f t="shared" ca="1" si="1"/>
-        <v>214</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>212</v>
       </c>
       <c r="D145">
         <v>4</v>
@@ -41457,8 +41810,8 @@
         <v>3873</v>
       </c>
       <c r="C146">
-        <f t="shared" ca="1" si="1"/>
-        <v>209</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>207</v>
       </c>
       <c r="D146">
         <v>4</v>
@@ -41484,8 +41837,8 @@
         <v>3873</v>
       </c>
       <c r="C147">
-        <f t="shared" ca="1" si="1"/>
-        <v>417</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>418</v>
       </c>
       <c r="D147">
         <v>8</v>
@@ -41511,8 +41864,8 @@
         <v>3747</v>
       </c>
       <c r="C148">
-        <f t="shared" ca="1" si="1"/>
-        <v>408</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>424</v>
       </c>
       <c r="D148">
         <v>8</v>
@@ -41538,8 +41891,8 @@
         <v>3747</v>
       </c>
       <c r="C149">
-        <f t="shared" ca="1" si="1"/>
-        <v>612</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>610</v>
       </c>
       <c r="D149">
         <v>12</v>
@@ -41565,8 +41918,8 @@
         <v>3747</v>
       </c>
       <c r="C150">
-        <f t="shared" ca="1" si="1"/>
-        <v>605</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>624</v>
       </c>
       <c r="D150">
         <v>12</v>
@@ -41592,8 +41945,8 @@
         <v>3747</v>
       </c>
       <c r="C151">
-        <f t="shared" ca="1" si="1"/>
-        <v>603</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>604</v>
       </c>
       <c r="D151">
         <v>12</v>
@@ -41619,8 +41972,8 @@
         <v>3747</v>
       </c>
       <c r="C152">
-        <f t="shared" ca="1" si="1"/>
-        <v>5171</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5173</v>
       </c>
       <c r="D152">
         <v>103</v>
@@ -41646,8 +41999,8 @@
         <v>3891</v>
       </c>
       <c r="C153">
-        <f t="shared" ca="1" si="1"/>
-        <v>5172</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5157</v>
       </c>
       <c r="D153">
         <v>103</v>
@@ -41673,8 +42026,8 @@
         <v>3891</v>
       </c>
       <c r="C154">
-        <f t="shared" ca="1" si="1"/>
-        <v>5167</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5166</v>
       </c>
       <c r="D154">
         <v>103</v>
@@ -41700,8 +42053,8 @@
         <v>3891</v>
       </c>
       <c r="C155">
-        <f t="shared" ca="1" si="1"/>
-        <v>5152</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5163</v>
       </c>
       <c r="D155">
         <v>103</v>
@@ -41727,8 +42080,8 @@
         <v>3891</v>
       </c>
       <c r="C156">
-        <f t="shared" ca="1" si="1"/>
-        <v>5173</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5162</v>
       </c>
       <c r="D156">
         <v>103</v>
@@ -41754,12 +42107,12 @@
         <v>3891</v>
       </c>
       <c r="C157">
-        <f t="shared" ca="1" si="1"/>
-        <v>5273</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5206</v>
       </c>
       <c r="D157">
         <f ca="1">INT(D156+RAND()*10)</f>
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G157">
         <v>4952</v>
@@ -41782,12 +42135,12 @@
         <v>3990</v>
       </c>
       <c r="C158">
-        <f t="shared" ca="1" si="1"/>
-        <v>5565</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5655</v>
       </c>
       <c r="D158">
-        <f t="shared" ref="D158:D172" ca="1" si="2">INT(D157+RAND()*10)</f>
-        <v>111</v>
+        <f t="shared" ref="D158:D172" ca="1" si="7">INT(D157+RAND()*10)</f>
+        <v>113</v>
       </c>
       <c r="G158">
         <v>4952</v>
@@ -41810,12 +42163,12 @@
         <v>3990</v>
       </c>
       <c r="C159">
-        <f t="shared" ca="1" si="1"/>
-        <v>5551</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>6001</v>
       </c>
       <c r="D159">
-        <f t="shared" ca="1" si="2"/>
-        <v>111</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>120</v>
       </c>
       <c r="G159">
         <v>5337</v>
@@ -41838,12 +42191,12 @@
         <v>3990</v>
       </c>
       <c r="C160">
-        <f t="shared" ca="1" si="1"/>
-        <v>5123</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5760</v>
       </c>
       <c r="D160">
         <f ca="1">D159-RAND()*10</f>
-        <v>102.02186813595949</v>
+        <v>115.03623939278017</v>
       </c>
       <c r="G160">
         <v>5337</v>
@@ -41867,11 +42220,11 @@
       </c>
       <c r="C161">
         <f ca="1">INT(D161*50+RAND()*25)</f>
-        <v>5422</v>
+        <v>5966</v>
       </c>
       <c r="D161">
-        <f t="shared" ca="1" si="2"/>
-        <v>108</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>119</v>
       </c>
       <c r="G161">
         <v>5337</v>
@@ -41897,12 +42250,12 @@
         <v>3990</v>
       </c>
       <c r="C162">
-        <f t="shared" ca="1" si="1"/>
-        <v>5752</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>6400</v>
       </c>
       <c r="D162">
-        <f t="shared" ca="1" si="2"/>
-        <v>115</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>128</v>
       </c>
       <c r="G162">
         <v>5337</v>
@@ -41928,12 +42281,12 @@
         <v>4093</v>
       </c>
       <c r="C163">
-        <f t="shared" ca="1" si="1"/>
-        <v>5601</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>6117</v>
       </c>
       <c r="D163">
         <f ca="1">D162-RAND()*10</f>
-        <v>111.71226541369026</v>
+        <v>122.27749975497805</v>
       </c>
       <c r="G163">
         <v>5337</v>
@@ -41959,12 +42312,12 @@
         <v>2046</v>
       </c>
       <c r="C164">
-        <f t="shared" ca="1" si="1"/>
-        <v>6002</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>6120</v>
       </c>
       <c r="D164">
-        <f t="shared" ca="1" si="2"/>
-        <v>120</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>122</v>
       </c>
       <c r="G164">
         <v>5810</v>
@@ -41990,12 +42343,12 @@
         <v>2046</v>
       </c>
       <c r="C165">
-        <f t="shared" ca="1" si="1"/>
-        <v>5613</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>6114</v>
       </c>
       <c r="D165">
         <f ca="1">D164-RAND()*10</f>
-        <v>112.27313735511909</v>
+        <v>121.78726201596396</v>
       </c>
       <c r="G165">
         <v>5810</v>
@@ -42021,12 +42374,12 @@
         <v>2046</v>
       </c>
       <c r="C166">
-        <f t="shared" ca="1" si="1"/>
-        <v>5953</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>6406</v>
       </c>
       <c r="D166">
-        <f t="shared" ca="1" si="2"/>
-        <v>119</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>128</v>
       </c>
       <c r="G166">
         <v>5810</v>
@@ -42052,12 +42405,12 @@
         <v>2046</v>
       </c>
       <c r="C167">
-        <f t="shared" ca="1" si="1"/>
-        <v>6108</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>6816</v>
       </c>
       <c r="D167">
-        <f t="shared" ca="1" si="2"/>
-        <v>122</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>136</v>
       </c>
       <c r="G167">
         <v>5810</v>
@@ -42083,12 +42436,12 @@
         <v>2046</v>
       </c>
       <c r="C168">
-        <f t="shared" ca="1" si="1"/>
-        <v>5812</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>6521</v>
       </c>
       <c r="D168">
         <f ca="1">D167-RAND()*10</f>
-        <v>116.09405468026692</v>
+        <v>130.24469485031889</v>
       </c>
       <c r="G168">
         <v>5810</v>
@@ -42114,12 +42467,12 @@
         <v>2347</v>
       </c>
       <c r="C169">
-        <f t="shared" ca="1" si="1"/>
-        <v>6150</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>6967</v>
       </c>
       <c r="D169">
-        <f t="shared" ca="1" si="2"/>
-        <v>123</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>139</v>
       </c>
       <c r="G169">
         <v>5810</v>
@@ -42146,11 +42499,11 @@
       </c>
       <c r="C170">
         <f ca="1">INT(D170*50+RAND()*25)</f>
-        <v>6153</v>
+        <v>6601</v>
       </c>
       <c r="D170">
         <f ca="1">D169-RAND()*10</f>
-        <v>122.92701284797519</v>
+        <v>131.89480308921088</v>
       </c>
       <c r="G170">
         <v>6239</v>
@@ -42176,12 +42529,12 @@
         <v>2347</v>
       </c>
       <c r="C171">
-        <f t="shared" ca="1" si="1"/>
-        <v>6517</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>6801</v>
       </c>
       <c r="D171">
-        <f t="shared" ca="1" si="2"/>
-        <v>130</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>136</v>
       </c>
       <c r="G171">
         <v>6239</v>
@@ -42207,12 +42560,12 @@
         <v>2347</v>
       </c>
       <c r="C172">
-        <f t="shared" ca="1" si="1"/>
-        <v>6768</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>6803</v>
       </c>
       <c r="D172">
-        <f t="shared" ca="1" si="2"/>
-        <v>135</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>136</v>
       </c>
       <c r="G172">
         <v>6239</v>
@@ -42238,12 +42591,12 @@
         <v>2347</v>
       </c>
       <c r="C173">
-        <f t="shared" ca="1" si="1"/>
-        <v>5850</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5536</v>
       </c>
       <c r="D173">
         <f ca="1">100+RAND()*20</f>
-        <v>116.74955601229462</v>
+        <v>110.36267402000414</v>
       </c>
       <c r="G173">
         <v>6239</v>
@@ -42269,12 +42622,12 @@
         <v>2222</v>
       </c>
       <c r="C174">
-        <f t="shared" ca="1" si="1"/>
-        <v>5229</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5357</v>
       </c>
       <c r="D174">
-        <f t="shared" ref="D174:D204" ca="1" si="3">100+RAND()*20</f>
-        <v>104.46153963168091</v>
+        <f t="shared" ref="D174:D204" ca="1" si="8">100+RAND()*20</f>
+        <v>106.75952282775781</v>
       </c>
       <c r="G174">
         <v>6239</v>
@@ -42300,12 +42653,12 @@
         <v>2222</v>
       </c>
       <c r="C175">
-        <f t="shared" ca="1" si="1"/>
-        <v>5782</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5522</v>
       </c>
       <c r="D175">
-        <f t="shared" ca="1" si="3"/>
-        <v>115.58152672808527</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>110.22142742939874</v>
       </c>
       <c r="G175">
         <v>6049</v>
@@ -42331,12 +42684,12 @@
         <v>2222</v>
       </c>
       <c r="C176">
-        <f t="shared" ca="1" si="1"/>
-        <v>5063</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5491</v>
       </c>
       <c r="D176">
-        <f t="shared" ca="1" si="3"/>
-        <v>101.16929607400105</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>109.47395668954344</v>
       </c>
       <c r="G176">
         <v>6049</v>
@@ -42359,12 +42712,12 @@
         <v>2222</v>
       </c>
       <c r="C177">
-        <f t="shared" ca="1" si="1"/>
-        <v>5205</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5294</v>
       </c>
       <c r="D177">
-        <f t="shared" ca="1" si="3"/>
-        <v>104.00710472322747</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>105.7113020168795</v>
       </c>
       <c r="G177">
         <v>6049</v>
@@ -42387,12 +42740,12 @@
         <v>2222</v>
       </c>
       <c r="C178">
-        <f t="shared" ca="1" si="1"/>
-        <v>5256</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5291</v>
       </c>
       <c r="D178">
-        <f t="shared" ca="1" si="3"/>
-        <v>104.72685328702559</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>105.7627712899164</v>
       </c>
       <c r="G178">
         <v>6049</v>
@@ -42415,12 +42768,12 @@
         <v>2452</v>
       </c>
       <c r="C179">
-        <f t="shared" ca="1" si="1"/>
-        <v>5068</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5705</v>
       </c>
       <c r="D179">
-        <f t="shared" ca="1" si="3"/>
-        <v>101.07991058115603</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>113.82684673951249</v>
       </c>
       <c r="G179">
         <v>6049</v>
@@ -42443,12 +42796,12 @@
         <v>2452</v>
       </c>
       <c r="C180">
-        <f t="shared" ca="1" si="1"/>
-        <v>5449</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5718</v>
       </c>
       <c r="D180">
-        <f t="shared" ca="1" si="3"/>
-        <v>108.81570461171037</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>114.16284431480756</v>
       </c>
       <c r="G180">
         <v>6241</v>
@@ -42471,12 +42824,12 @@
         <v>2452</v>
       </c>
       <c r="C181">
-        <f t="shared" ca="1" si="1"/>
-        <v>5096</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5361</v>
       </c>
       <c r="D181">
-        <f t="shared" ca="1" si="3"/>
-        <v>101.46042944616801</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>107.09637003183735</v>
       </c>
       <c r="G181">
         <v>6241</v>
@@ -42499,12 +42852,12 @@
         <v>2452</v>
       </c>
       <c r="C182">
-        <f t="shared" ca="1" si="1"/>
-        <v>5187</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5736</v>
       </c>
       <c r="D182">
-        <f t="shared" ca="1" si="3"/>
-        <v>103.521760534742</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>114.64566748383464</v>
       </c>
       <c r="G182">
         <v>6241</v>
@@ -42527,12 +42880,12 @@
         <v>2452</v>
       </c>
       <c r="C183">
-        <f t="shared" ca="1" si="1"/>
-        <v>5179</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5746</v>
       </c>
       <c r="D183">
-        <f t="shared" ca="1" si="3"/>
-        <v>103.315794088169</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>114.52160845553217</v>
       </c>
       <c r="G183">
         <v>6241</v>
@@ -42555,12 +42908,12 @@
         <v>2999</v>
       </c>
       <c r="C184">
-        <f t="shared" ca="1" si="1"/>
-        <v>5931</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5860</v>
       </c>
       <c r="D184">
-        <f t="shared" ca="1" si="3"/>
-        <v>118.19222583250364</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>117.00185453193077</v>
       </c>
       <c r="G184">
         <v>6241</v>
@@ -42583,12 +42936,12 @@
         <v>2999</v>
       </c>
       <c r="C185">
-        <f t="shared" ca="1" si="1"/>
-        <v>5096</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5745</v>
       </c>
       <c r="D185">
-        <f t="shared" ca="1" si="3"/>
-        <v>101.79102226938308</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>114.45873554403906</v>
       </c>
       <c r="G185">
         <v>6526</v>
@@ -42611,12 +42964,12 @@
         <v>2999</v>
       </c>
       <c r="C186">
-        <f t="shared" ca="1" si="1"/>
-        <v>5274</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5445</v>
       </c>
       <c r="D186">
-        <f t="shared" ca="1" si="3"/>
-        <v>105.4633531351725</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>108.76656242000442</v>
       </c>
       <c r="G186">
         <v>6526</v>
@@ -42639,12 +42992,12 @@
         <v>2999</v>
       </c>
       <c r="C187">
-        <f t="shared" ca="1" si="1"/>
-        <v>5276</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5702</v>
       </c>
       <c r="D187">
-        <f t="shared" ca="1" si="3"/>
-        <v>105.22391836968323</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>113.69567699181248</v>
       </c>
       <c r="G187">
         <v>6526</v>
@@ -42667,12 +43020,12 @@
         <v>2999</v>
       </c>
       <c r="C188">
-        <f t="shared" ca="1" si="1"/>
-        <v>5038</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5251</v>
       </c>
       <c r="D188">
-        <f t="shared" ca="1" si="3"/>
-        <v>100.71845728067851</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>104.89106809713221</v>
       </c>
       <c r="G188">
         <v>6526</v>
@@ -42695,12 +43048,12 @@
         <v>3595</v>
       </c>
       <c r="C189">
-        <f t="shared" ca="1" si="1"/>
-        <v>5016</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5291</v>
       </c>
       <c r="D189">
-        <f t="shared" ca="1" si="3"/>
-        <v>100.30415400308338</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>105.82114487144472</v>
       </c>
       <c r="G189">
         <v>6526</v>
@@ -42723,12 +43076,12 @@
         <v>3595</v>
       </c>
       <c r="C190">
-        <f t="shared" ca="1" si="1"/>
-        <v>5224</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5266</v>
       </c>
       <c r="D190">
-        <f t="shared" ca="1" si="3"/>
-        <v>104.20178107525435</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>105.02941173292558</v>
       </c>
       <c r="G190">
         <v>6769</v>
@@ -42751,12 +43104,12 @@
         <v>3595</v>
       </c>
       <c r="C191">
-        <f t="shared" ca="1" si="1"/>
-        <v>5615</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5959</v>
       </c>
       <c r="D191">
-        <f t="shared" ca="1" si="3"/>
-        <v>112.18387601881309</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>118.78022876126118</v>
       </c>
       <c r="G191">
         <v>6769</v>
@@ -42779,12 +43132,12 @@
         <v>3595</v>
       </c>
       <c r="C192">
-        <f t="shared" ca="1" si="1"/>
-        <v>5328</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5641</v>
       </c>
       <c r="D192">
-        <f t="shared" ca="1" si="3"/>
-        <v>106.48360159859153</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>112.802540517282</v>
       </c>
       <c r="G192">
         <v>6769</v>
@@ -42807,12 +43160,12 @@
         <v>3595</v>
       </c>
       <c r="C193">
-        <f t="shared" ca="1" si="1"/>
-        <v>5736</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5522</v>
       </c>
       <c r="D193">
-        <f t="shared" ca="1" si="3"/>
-        <v>114.41547335062467</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>110.1543330993246</v>
       </c>
       <c r="G193">
         <v>6769</v>
@@ -42835,12 +43188,12 @@
         <v>4003</v>
       </c>
       <c r="C194">
-        <f t="shared" ca="1" si="1"/>
-        <v>5247</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5050</v>
       </c>
       <c r="D194">
-        <f t="shared" ca="1" si="3"/>
-        <v>104.69330022225013</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>100.65715185654166</v>
       </c>
       <c r="G194">
         <v>6769</v>
@@ -42863,12 +43216,12 @@
         <v>4003</v>
       </c>
       <c r="C195">
-        <f t="shared" ca="1" si="1"/>
-        <v>5928</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5253</v>
       </c>
       <c r="D195">
-        <f t="shared" ca="1" si="3"/>
-        <v>118.32617114792808</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>104.86946151714098</v>
       </c>
       <c r="G195">
         <v>6924</v>
@@ -42891,12 +43244,12 @@
         <v>4003</v>
       </c>
       <c r="C196">
-        <f t="shared" ca="1" si="1"/>
-        <v>5761</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5020</v>
       </c>
       <c r="D196">
-        <f t="shared" ca="1" si="3"/>
-        <v>114.90921733202116</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>100.02130717643033</v>
       </c>
       <c r="G196">
         <v>6924</v>
@@ -42919,12 +43272,12 @@
         <v>4003</v>
       </c>
       <c r="C197">
-        <f t="shared" ca="1" si="1"/>
-        <v>5438</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5053</v>
       </c>
       <c r="D197">
-        <f t="shared" ca="1" si="3"/>
-        <v>108.64318514710888</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>100.73901412907649</v>
       </c>
       <c r="G197">
         <v>6924</v>
@@ -42947,12 +43300,12 @@
         <v>4003</v>
       </c>
       <c r="C198">
-        <f t="shared" ca="1" si="1"/>
-        <v>5726</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5943</v>
       </c>
       <c r="D198">
-        <f t="shared" ca="1" si="3"/>
-        <v>114.48343870049419</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>118.84528703187155</v>
       </c>
       <c r="G198">
         <v>6924</v>
@@ -42975,12 +43328,12 @@
         <v>4333</v>
       </c>
       <c r="C199">
-        <f t="shared" ca="1" si="1"/>
-        <v>5142</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5493</v>
       </c>
       <c r="D199">
-        <f t="shared" ca="1" si="3"/>
-        <v>102.59479669304542</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>109.59967442819965</v>
       </c>
       <c r="G199">
         <v>6924</v>
@@ -43003,12 +43356,12 @@
         <v>4333</v>
       </c>
       <c r="C200">
-        <f t="shared" ca="1" si="1"/>
-        <v>5275</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5427</v>
       </c>
       <c r="D200">
-        <f t="shared" ca="1" si="3"/>
-        <v>105.16911655910883</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>108.10196571998648</v>
       </c>
       <c r="G200">
         <v>6897</v>
@@ -43031,12 +43384,12 @@
         <v>4333</v>
       </c>
       <c r="C201">
-        <f t="shared" ca="1" si="1"/>
-        <v>5657</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5767</v>
       </c>
       <c r="D201">
-        <f t="shared" ca="1" si="3"/>
-        <v>112.74803194815269</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>115.14215456991586</v>
       </c>
       <c r="G201">
         <v>6897</v>
@@ -43060,11 +43413,11 @@
       </c>
       <c r="C202">
         <f ca="1">D202*50</f>
-        <v>5983.6579806649097</v>
+        <v>5578.9119142787476</v>
       </c>
       <c r="D202">
-        <f t="shared" ca="1" si="3"/>
-        <v>119.6731596132982</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>111.57823828557495</v>
       </c>
       <c r="G202">
         <v>6897</v>
@@ -43088,11 +43441,11 @@
       </c>
       <c r="C203">
         <f ca="1">D203*50</f>
-        <v>5496.2892183400709</v>
+        <v>5470.0069539387987</v>
       </c>
       <c r="D203">
-        <f t="shared" ca="1" si="3"/>
-        <v>109.92578436680142</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>109.40013907877596</v>
       </c>
       <c r="G203">
         <v>6897</v>
@@ -43116,11 +43469,11 @@
       </c>
       <c r="C204">
         <f ca="1">D204*50</f>
-        <v>5293.0417146895461</v>
+        <v>5761.3394831366531</v>
       </c>
       <c r="D204">
-        <f t="shared" ca="1" si="3"/>
-        <v>105.86083429379093</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>115.22678966273307</v>
       </c>
       <c r="G204">
         <v>6897</v>
@@ -71002,152 +71355,152 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C6:I26"/>
+  <dimension ref="C6:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="6" spans="6:9" ht="14.25" thickBot="1"/>
     <row r="7" spans="6:9" ht="14.25" thickBot="1">
-      <c r="F7" s="30">
+      <c r="F7" s="16">
         <v>3108</v>
       </c>
-      <c r="G7" s="31">
+      <c r="G7" s="17">
         <v>4812</v>
       </c>
-      <c r="H7" s="31">
+      <c r="H7" s="17">
         <v>4528</v>
       </c>
-      <c r="I7" s="31">
+      <c r="I7" s="17">
         <v>4273</v>
       </c>
     </row>
     <row r="8" spans="6:9" ht="14.25" thickBot="1">
-      <c r="F8" s="32">
+      <c r="F8" s="18">
         <v>3074</v>
       </c>
-      <c r="G8" s="33">
+      <c r="G8" s="19">
         <v>4405</v>
       </c>
-      <c r="H8" s="33">
+      <c r="H8" s="19">
         <v>4380</v>
       </c>
-      <c r="I8" s="33">
+      <c r="I8" s="19">
         <v>4318</v>
       </c>
     </row>
     <row r="9" spans="6:9" ht="14.25" thickBot="1">
-      <c r="F9" s="32">
+      <c r="F9" s="18">
         <v>3074</v>
       </c>
-      <c r="G9" s="33">
+      <c r="G9" s="19">
         <v>5252</v>
       </c>
-      <c r="H9" s="33">
+      <c r="H9" s="19">
         <v>4510</v>
       </c>
-      <c r="I9" s="33">
+      <c r="I9" s="19">
         <v>4239</v>
       </c>
     </row>
     <row r="10" spans="6:9" ht="14.25" thickBot="1">
-      <c r="F10" s="32">
+      <c r="F10" s="18">
         <v>2748</v>
       </c>
-      <c r="G10" s="33">
+      <c r="G10" s="19">
         <v>4599</v>
       </c>
-      <c r="H10" s="33">
+      <c r="H10" s="19">
         <v>4404</v>
       </c>
-      <c r="I10" s="33">
+      <c r="I10" s="19">
         <v>4320</v>
       </c>
     </row>
     <row r="11" spans="6:9" ht="14.25" thickBot="1">
-      <c r="F11" s="32">
+      <c r="F11" s="18">
         <v>3006</v>
       </c>
-      <c r="G11" s="33">
+      <c r="G11" s="19">
         <v>4315</v>
       </c>
-      <c r="H11" s="33">
+      <c r="H11" s="19">
         <v>4299</v>
       </c>
-      <c r="I11" s="33">
+      <c r="I11" s="19">
         <v>4303</v>
       </c>
     </row>
     <row r="12" spans="6:9" ht="14.25" thickBot="1">
-      <c r="F12" s="32">
+      <c r="F12" s="18">
         <v>3100</v>
       </c>
-      <c r="G12" s="33">
+      <c r="G12" s="19">
         <v>5078</v>
       </c>
-      <c r="H12" s="33">
+      <c r="H12" s="19">
         <v>4084</v>
       </c>
-      <c r="I12" s="33">
+      <c r="I12" s="19">
         <v>4272</v>
       </c>
     </row>
     <row r="13" spans="6:9" ht="14.25" thickBot="1">
-      <c r="F13" s="32">
+      <c r="F13" s="18">
         <v>3058</v>
       </c>
-      <c r="G13" s="33">
+      <c r="G13" s="19">
         <v>5087</v>
       </c>
-      <c r="H13" s="33">
+      <c r="H13" s="19">
         <v>3943</v>
       </c>
-      <c r="I13" s="33">
+      <c r="I13" s="19">
         <v>4290</v>
       </c>
     </row>
     <row r="14" spans="6:9" ht="14.25" thickBot="1">
-      <c r="F14" s="32">
+      <c r="F14" s="18">
         <v>3108</v>
       </c>
-      <c r="G14" s="33">
+      <c r="G14" s="19">
         <v>4956</v>
       </c>
-      <c r="H14" s="33">
+      <c r="H14" s="19">
         <v>4464</v>
       </c>
-      <c r="I14" s="33">
+      <c r="I14" s="19">
         <v>4205</v>
       </c>
     </row>
     <row r="15" spans="6:9" ht="14.25" thickBot="1">
-      <c r="F15" s="32">
+      <c r="F15" s="18">
         <v>3079</v>
       </c>
-      <c r="G15" s="33">
+      <c r="G15" s="19">
         <v>4754</v>
       </c>
-      <c r="H15" s="33">
+      <c r="H15" s="19">
         <v>4568</v>
       </c>
-      <c r="I15" s="33">
+      <c r="I15" s="19">
         <v>4222</v>
       </c>
     </row>
     <row r="16" spans="6:9" ht="14.25" thickBot="1">
-      <c r="F16" s="32">
+      <c r="F16" s="18">
         <v>3034</v>
       </c>
-      <c r="G16" s="33">
+      <c r="G16" s="19">
         <v>4815</v>
       </c>
-      <c r="H16" s="33">
+      <c r="H16" s="19">
         <v>4024</v>
       </c>
-      <c r="I16" s="33">
+      <c r="I16" s="19">
         <v>4247</v>
       </c>
     </row>
@@ -71158,16 +71511,16 @@
       <c r="D17">
         <v>3034.9230769230771</v>
       </c>
-      <c r="F17" s="32">
+      <c r="F17" s="18">
         <v>3080</v>
       </c>
-      <c r="G17" s="33">
+      <c r="G17" s="19">
         <v>4650</v>
       </c>
-      <c r="H17" s="33">
+      <c r="H17" s="19">
         <v>4028</v>
       </c>
-      <c r="I17" s="33">
+      <c r="I17" s="19">
         <v>4212</v>
       </c>
     </row>
@@ -71178,16 +71531,16 @@
       <c r="D18">
         <v>4821.2307692307695</v>
       </c>
-      <c r="F18" s="32">
+      <c r="F18" s="18">
         <v>2938</v>
       </c>
-      <c r="G18" s="33">
+      <c r="G18" s="19">
         <v>4880</v>
       </c>
-      <c r="H18" s="33">
+      <c r="H18" s="19">
         <v>4092</v>
       </c>
-      <c r="I18" s="33">
+      <c r="I18" s="19">
         <v>4188</v>
       </c>
     </row>
@@ -71198,16 +71551,16 @@
       <c r="D19">
         <v>4259.0769230769229</v>
       </c>
-      <c r="F19" s="32">
+      <c r="F19" s="18">
         <v>3047</v>
       </c>
-      <c r="G19" s="33">
+      <c r="G19" s="19">
         <v>5073</v>
       </c>
-      <c r="H19" s="33">
+      <c r="H19" s="19">
         <v>4044</v>
       </c>
-      <c r="I19" s="33">
+      <c r="I19" s="19">
         <v>4211</v>
       </c>
     </row>
@@ -71220,16 +71573,16 @@
       </c>
     </row>
     <row r="21" spans="3:9">
-      <c r="F21" s="34">
+      <c r="F21" s="20">
         <v>1</v>
       </c>
-      <c r="G21" s="34">
+      <c r="G21" s="20">
         <v>2</v>
       </c>
-      <c r="H21" s="34">
+      <c r="H21" s="20">
         <v>4</v>
       </c>
-      <c r="I21" s="34">
+      <c r="I21" s="20">
         <v>8</v>
       </c>
     </row>
@@ -71277,6 +71630,75 @@
       </c>
       <c r="I26">
         <v>4253.8461538461543</v>
+      </c>
+    </row>
+    <row r="31" spans="3:9">
+      <c r="C31" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="3:9">
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>2034.9230769230801</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4">
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>3821.23076923077</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4">
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4">
+      <c r="C35">
+        <v>4</v>
+      </c>
+      <c r="D35">
+        <v>6359.0769230769201</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4">
+      <c r="C36">
+        <v>5</v>
+      </c>
+      <c r="D36">
+        <v>7459.0769230769201</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4">
+      <c r="C37">
+        <v>6</v>
+      </c>
+      <c r="D37">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4">
+      <c r="C38">
+        <v>7</v>
+      </c>
+      <c r="D38">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4">
+      <c r="C39">
+        <v>8</v>
+      </c>
+      <c r="D39">
+        <v>8900</v>
       </c>
     </row>
   </sheetData>

--- a/draft/测试结果数据.xlsx
+++ b/draft/测试结果数据.xlsx
@@ -13098,25 +13098,25 @@
                   <c:v>2034.9230769230801</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3821.23076923077</c:v>
+                  <c:v>3721.23076923077</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5100</c:v>
+                  <c:v>5300</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6359.0769230769201</c:v>
+                  <c:v>6159.0769230769201</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7459.0769230769201</c:v>
+                  <c:v>6959.0769230769201</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8000</c:v>
+                  <c:v>7400</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8500</c:v>
+                  <c:v>7800</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8900</c:v>
+                  <c:v>8100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -41703,7 +41703,7 @@
       </c>
       <c r="C142">
         <f t="shared" ref="C142:C201" ca="1" si="6">INT(D142*50+RAND()*25)</f>
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="D142">
         <v>4</v>
@@ -41730,7 +41730,7 @@
       </c>
       <c r="C143">
         <f t="shared" ca="1" si="6"/>
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="D143">
         <v>4</v>
@@ -41757,7 +41757,7 @@
       </c>
       <c r="C144">
         <f t="shared" ca="1" si="6"/>
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="D144">
         <v>4</v>
@@ -41784,7 +41784,7 @@
       </c>
       <c r="C145">
         <f t="shared" ca="1" si="6"/>
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="D145">
         <v>4</v>
@@ -41811,7 +41811,7 @@
       </c>
       <c r="C146">
         <f t="shared" ca="1" si="6"/>
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D146">
         <v>4</v>
@@ -41838,7 +41838,7 @@
       </c>
       <c r="C147">
         <f t="shared" ca="1" si="6"/>
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="D147">
         <v>8</v>
@@ -41865,7 +41865,7 @@
       </c>
       <c r="C148">
         <f t="shared" ca="1" si="6"/>
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D148">
         <v>8</v>
@@ -41892,7 +41892,7 @@
       </c>
       <c r="C149">
         <f t="shared" ca="1" si="6"/>
-        <v>610</v>
+        <v>619</v>
       </c>
       <c r="D149">
         <v>12</v>
@@ -41919,7 +41919,7 @@
       </c>
       <c r="C150">
         <f t="shared" ca="1" si="6"/>
-        <v>624</v>
+        <v>601</v>
       </c>
       <c r="D150">
         <v>12</v>
@@ -41946,7 +41946,7 @@
       </c>
       <c r="C151">
         <f t="shared" ca="1" si="6"/>
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D151">
         <v>12</v>
@@ -41973,7 +41973,7 @@
       </c>
       <c r="C152">
         <f t="shared" ca="1" si="6"/>
-        <v>5173</v>
+        <v>5158</v>
       </c>
       <c r="D152">
         <v>103</v>
@@ -42000,7 +42000,7 @@
       </c>
       <c r="C153">
         <f t="shared" ca="1" si="6"/>
-        <v>5157</v>
+        <v>5171</v>
       </c>
       <c r="D153">
         <v>103</v>
@@ -42054,7 +42054,7 @@
       </c>
       <c r="C155">
         <f t="shared" ca="1" si="6"/>
-        <v>5163</v>
+        <v>5165</v>
       </c>
       <c r="D155">
         <v>103</v>
@@ -42081,7 +42081,7 @@
       </c>
       <c r="C156">
         <f t="shared" ca="1" si="6"/>
-        <v>5162</v>
+        <v>5173</v>
       </c>
       <c r="D156">
         <v>103</v>
@@ -42108,11 +42108,11 @@
       </c>
       <c r="C157">
         <f t="shared" ca="1" si="6"/>
-        <v>5206</v>
+        <v>5600</v>
       </c>
       <c r="D157">
         <f ca="1">INT(D156+RAND()*10)</f>
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="G157">
         <v>4952</v>
@@ -42136,11 +42136,11 @@
       </c>
       <c r="C158">
         <f t="shared" ca="1" si="6"/>
-        <v>5655</v>
+        <v>5964</v>
       </c>
       <c r="D158">
         <f t="shared" ref="D158:D172" ca="1" si="7">INT(D157+RAND()*10)</f>
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="G158">
         <v>4952</v>
@@ -42164,11 +42164,11 @@
       </c>
       <c r="C159">
         <f t="shared" ca="1" si="6"/>
-        <v>6001</v>
+        <v>5962</v>
       </c>
       <c r="D159">
         <f t="shared" ca="1" si="7"/>
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G159">
         <v>5337</v>
@@ -42192,11 +42192,11 @@
       </c>
       <c r="C160">
         <f t="shared" ca="1" si="6"/>
-        <v>5760</v>
+        <v>5934</v>
       </c>
       <c r="D160">
         <f ca="1">D159-RAND()*10</f>
-        <v>115.03623939278017</v>
+        <v>118.2266279882442</v>
       </c>
       <c r="G160">
         <v>5337</v>
@@ -42220,11 +42220,11 @@
       </c>
       <c r="C161">
         <f ca="1">INT(D161*50+RAND()*25)</f>
-        <v>5966</v>
+        <v>6219</v>
       </c>
       <c r="D161">
         <f t="shared" ca="1" si="7"/>
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="G161">
         <v>5337</v>
@@ -42251,11 +42251,11 @@
       </c>
       <c r="C162">
         <f t="shared" ca="1" si="6"/>
-        <v>6400</v>
+        <v>6306</v>
       </c>
       <c r="D162">
         <f t="shared" ca="1" si="7"/>
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G162">
         <v>5337</v>
@@ -42282,11 +42282,11 @@
       </c>
       <c r="C163">
         <f t="shared" ca="1" si="6"/>
-        <v>6117</v>
+        <v>6152</v>
       </c>
       <c r="D163">
         <f ca="1">D162-RAND()*10</f>
-        <v>122.27749975497805</v>
+        <v>122.60780716769426</v>
       </c>
       <c r="G163">
         <v>5337</v>
@@ -42313,11 +42313,11 @@
       </c>
       <c r="C164">
         <f t="shared" ca="1" si="6"/>
-        <v>6120</v>
+        <v>6419</v>
       </c>
       <c r="D164">
         <f t="shared" ca="1" si="7"/>
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G164">
         <v>5810</v>
@@ -42344,11 +42344,11 @@
       </c>
       <c r="C165">
         <f t="shared" ca="1" si="6"/>
-        <v>6114</v>
+        <v>5920</v>
       </c>
       <c r="D165">
         <f ca="1">D164-RAND()*10</f>
-        <v>121.78726201596396</v>
+        <v>118.3753956753484</v>
       </c>
       <c r="G165">
         <v>5810</v>
@@ -42375,11 +42375,11 @@
       </c>
       <c r="C166">
         <f t="shared" ca="1" si="6"/>
-        <v>6406</v>
+        <v>5907</v>
       </c>
       <c r="D166">
         <f t="shared" ca="1" si="7"/>
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="G166">
         <v>5810</v>
@@ -42406,11 +42406,11 @@
       </c>
       <c r="C167">
         <f t="shared" ca="1" si="6"/>
-        <v>6816</v>
+        <v>6357</v>
       </c>
       <c r="D167">
         <f t="shared" ca="1" si="7"/>
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="G167">
         <v>5810</v>
@@ -42437,11 +42437,11 @@
       </c>
       <c r="C168">
         <f t="shared" ca="1" si="6"/>
-        <v>6521</v>
+        <v>6210</v>
       </c>
       <c r="D168">
         <f ca="1">D167-RAND()*10</f>
-        <v>130.24469485031889</v>
+        <v>124.062734953947</v>
       </c>
       <c r="G168">
         <v>5810</v>
@@ -42468,11 +42468,11 @@
       </c>
       <c r="C169">
         <f t="shared" ca="1" si="6"/>
-        <v>6967</v>
+        <v>6219</v>
       </c>
       <c r="D169">
         <f t="shared" ca="1" si="7"/>
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="G169">
         <v>5810</v>
@@ -42499,11 +42499,11 @@
       </c>
       <c r="C170">
         <f ca="1">INT(D170*50+RAND()*25)</f>
-        <v>6601</v>
+        <v>6182</v>
       </c>
       <c r="D170">
         <f ca="1">D169-RAND()*10</f>
-        <v>131.89480308921088</v>
+        <v>123.30143884413485</v>
       </c>
       <c r="G170">
         <v>6239</v>
@@ -42530,11 +42530,11 @@
       </c>
       <c r="C171">
         <f t="shared" ca="1" si="6"/>
-        <v>6801</v>
+        <v>6318</v>
       </c>
       <c r="D171">
         <f t="shared" ca="1" si="7"/>
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="G171">
         <v>6239</v>
@@ -42561,11 +42561,11 @@
       </c>
       <c r="C172">
         <f t="shared" ca="1" si="6"/>
-        <v>6803</v>
+        <v>6558</v>
       </c>
       <c r="D172">
         <f t="shared" ca="1" si="7"/>
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="G172">
         <v>6239</v>
@@ -42592,11 +42592,11 @@
       </c>
       <c r="C173">
         <f t="shared" ca="1" si="6"/>
-        <v>5536</v>
+        <v>5464</v>
       </c>
       <c r="D173">
         <f ca="1">100+RAND()*20</f>
-        <v>110.36267402000414</v>
+        <v>109.13294559305061</v>
       </c>
       <c r="G173">
         <v>6239</v>
@@ -42623,11 +42623,11 @@
       </c>
       <c r="C174">
         <f t="shared" ca="1" si="6"/>
-        <v>5357</v>
+        <v>5476</v>
       </c>
       <c r="D174">
         <f t="shared" ref="D174:D204" ca="1" si="8">100+RAND()*20</f>
-        <v>106.75952282775781</v>
+        <v>109.15097311849385</v>
       </c>
       <c r="G174">
         <v>6239</v>
@@ -42654,11 +42654,11 @@
       </c>
       <c r="C175">
         <f t="shared" ca="1" si="6"/>
-        <v>5522</v>
+        <v>5084</v>
       </c>
       <c r="D175">
         <f t="shared" ca="1" si="8"/>
-        <v>110.22142742939874</v>
+        <v>101.37448592966595</v>
       </c>
       <c r="G175">
         <v>6049</v>
@@ -42685,11 +42685,11 @@
       </c>
       <c r="C176">
         <f t="shared" ca="1" si="6"/>
-        <v>5491</v>
+        <v>5497</v>
       </c>
       <c r="D176">
         <f t="shared" ca="1" si="8"/>
-        <v>109.47395668954344</v>
+        <v>109.70251392933955</v>
       </c>
       <c r="G176">
         <v>6049</v>
@@ -42713,11 +42713,11 @@
       </c>
       <c r="C177">
         <f t="shared" ca="1" si="6"/>
-        <v>5294</v>
+        <v>5475</v>
       </c>
       <c r="D177">
         <f t="shared" ca="1" si="8"/>
-        <v>105.7113020168795</v>
+        <v>109.21078165981305</v>
       </c>
       <c r="G177">
         <v>6049</v>
@@ -42741,11 +42741,11 @@
       </c>
       <c r="C178">
         <f t="shared" ca="1" si="6"/>
-        <v>5291</v>
+        <v>5863</v>
       </c>
       <c r="D178">
         <f t="shared" ca="1" si="8"/>
-        <v>105.7627712899164</v>
+        <v>117.13312892761213</v>
       </c>
       <c r="G178">
         <v>6049</v>
@@ -42769,11 +42769,11 @@
       </c>
       <c r="C179">
         <f t="shared" ca="1" si="6"/>
-        <v>5705</v>
+        <v>5779</v>
       </c>
       <c r="D179">
         <f t="shared" ca="1" si="8"/>
-        <v>113.82684673951249</v>
+        <v>115.5731632629908</v>
       </c>
       <c r="G179">
         <v>6049</v>
@@ -42797,11 +42797,11 @@
       </c>
       <c r="C180">
         <f t="shared" ca="1" si="6"/>
-        <v>5718</v>
+        <v>5790</v>
       </c>
       <c r="D180">
         <f t="shared" ca="1" si="8"/>
-        <v>114.16284431480756</v>
+        <v>115.68929714150327</v>
       </c>
       <c r="G180">
         <v>6241</v>
@@ -42825,11 +42825,11 @@
       </c>
       <c r="C181">
         <f t="shared" ca="1" si="6"/>
-        <v>5361</v>
+        <v>5398</v>
       </c>
       <c r="D181">
         <f t="shared" ca="1" si="8"/>
-        <v>107.09637003183735</v>
+        <v>107.90897415640001</v>
       </c>
       <c r="G181">
         <v>6241</v>
@@ -42853,11 +42853,11 @@
       </c>
       <c r="C182">
         <f t="shared" ca="1" si="6"/>
-        <v>5736</v>
+        <v>5816</v>
       </c>
       <c r="D182">
         <f t="shared" ca="1" si="8"/>
-        <v>114.64566748383464</v>
+        <v>116.30994134518605</v>
       </c>
       <c r="G182">
         <v>6241</v>
@@ -42881,11 +42881,11 @@
       </c>
       <c r="C183">
         <f t="shared" ca="1" si="6"/>
-        <v>5746</v>
+        <v>5873</v>
       </c>
       <c r="D183">
         <f t="shared" ca="1" si="8"/>
-        <v>114.52160845553217</v>
+        <v>117.04144325805871</v>
       </c>
       <c r="G183">
         <v>6241</v>
@@ -42909,11 +42909,11 @@
       </c>
       <c r="C184">
         <f t="shared" ca="1" si="6"/>
-        <v>5860</v>
+        <v>5681</v>
       </c>
       <c r="D184">
         <f t="shared" ca="1" si="8"/>
-        <v>117.00185453193077</v>
+        <v>113.58740138887521</v>
       </c>
       <c r="G184">
         <v>6241</v>
@@ -42937,11 +42937,11 @@
       </c>
       <c r="C185">
         <f t="shared" ca="1" si="6"/>
-        <v>5745</v>
+        <v>5721</v>
       </c>
       <c r="D185">
         <f t="shared" ca="1" si="8"/>
-        <v>114.45873554403906</v>
+        <v>113.97277502479905</v>
       </c>
       <c r="G185">
         <v>6526</v>
@@ -42965,11 +42965,11 @@
       </c>
       <c r="C186">
         <f t="shared" ca="1" si="6"/>
-        <v>5445</v>
+        <v>5662</v>
       </c>
       <c r="D186">
         <f t="shared" ca="1" si="8"/>
-        <v>108.76656242000442</v>
+        <v>112.79408554432905</v>
       </c>
       <c r="G186">
         <v>6526</v>
@@ -42993,11 +42993,11 @@
       </c>
       <c r="C187">
         <f t="shared" ca="1" si="6"/>
-        <v>5702</v>
+        <v>5223</v>
       </c>
       <c r="D187">
         <f t="shared" ca="1" si="8"/>
-        <v>113.69567699181248</v>
+        <v>104.03237057503111</v>
       </c>
       <c r="G187">
         <v>6526</v>
@@ -43021,11 +43021,11 @@
       </c>
       <c r="C188">
         <f t="shared" ca="1" si="6"/>
-        <v>5251</v>
+        <v>5526</v>
       </c>
       <c r="D188">
         <f t="shared" ca="1" si="8"/>
-        <v>104.89106809713221</v>
+        <v>110.25056641400484</v>
       </c>
       <c r="G188">
         <v>6526</v>
@@ -43049,11 +43049,11 @@
       </c>
       <c r="C189">
         <f t="shared" ca="1" si="6"/>
-        <v>5291</v>
+        <v>5800</v>
       </c>
       <c r="D189">
         <f t="shared" ca="1" si="8"/>
-        <v>105.82114487144472</v>
+        <v>115.56858637926496</v>
       </c>
       <c r="G189">
         <v>6526</v>
@@ -43077,11 +43077,11 @@
       </c>
       <c r="C190">
         <f t="shared" ca="1" si="6"/>
-        <v>5266</v>
+        <v>5764</v>
       </c>
       <c r="D190">
         <f t="shared" ca="1" si="8"/>
-        <v>105.02941173292558</v>
+        <v>115.16146254228238</v>
       </c>
       <c r="G190">
         <v>6769</v>
@@ -43105,11 +43105,11 @@
       </c>
       <c r="C191">
         <f t="shared" ca="1" si="6"/>
-        <v>5959</v>
+        <v>5316</v>
       </c>
       <c r="D191">
         <f t="shared" ca="1" si="8"/>
-        <v>118.78022876126118</v>
+        <v>106.27261694016558</v>
       </c>
       <c r="G191">
         <v>6769</v>
@@ -43133,11 +43133,11 @@
       </c>
       <c r="C192">
         <f t="shared" ca="1" si="6"/>
-        <v>5641</v>
+        <v>5418</v>
       </c>
       <c r="D192">
         <f t="shared" ca="1" si="8"/>
-        <v>112.802540517282</v>
+        <v>107.9057613430694</v>
       </c>
       <c r="G192">
         <v>6769</v>
@@ -43161,11 +43161,11 @@
       </c>
       <c r="C193">
         <f t="shared" ca="1" si="6"/>
-        <v>5522</v>
+        <v>5667</v>
       </c>
       <c r="D193">
         <f t="shared" ca="1" si="8"/>
-        <v>110.1543330993246</v>
+        <v>112.91087126616583</v>
       </c>
       <c r="G193">
         <v>6769</v>
@@ -43189,11 +43189,11 @@
       </c>
       <c r="C194">
         <f t="shared" ca="1" si="6"/>
-        <v>5050</v>
+        <v>5044</v>
       </c>
       <c r="D194">
         <f t="shared" ca="1" si="8"/>
-        <v>100.65715185654166</v>
+        <v>100.66836777635181</v>
       </c>
       <c r="G194">
         <v>6769</v>
@@ -43217,11 +43217,11 @@
       </c>
       <c r="C195">
         <f t="shared" ca="1" si="6"/>
-        <v>5253</v>
+        <v>5383</v>
       </c>
       <c r="D195">
         <f t="shared" ca="1" si="8"/>
-        <v>104.86946151714098</v>
+        <v>107.6264756185938</v>
       </c>
       <c r="G195">
         <v>6924</v>
@@ -43245,11 +43245,11 @@
       </c>
       <c r="C196">
         <f t="shared" ca="1" si="6"/>
-        <v>5020</v>
+        <v>5782</v>
       </c>
       <c r="D196">
         <f t="shared" ca="1" si="8"/>
-        <v>100.02130717643033</v>
+        <v>115.63204962989073</v>
       </c>
       <c r="G196">
         <v>6924</v>
@@ -43273,11 +43273,11 @@
       </c>
       <c r="C197">
         <f t="shared" ca="1" si="6"/>
-        <v>5053</v>
+        <v>5869</v>
       </c>
       <c r="D197">
         <f t="shared" ca="1" si="8"/>
-        <v>100.73901412907649</v>
+        <v>117.13573707531624</v>
       </c>
       <c r="G197">
         <v>6924</v>
@@ -43301,11 +43301,11 @@
       </c>
       <c r="C198">
         <f t="shared" ca="1" si="6"/>
-        <v>5943</v>
+        <v>5084</v>
       </c>
       <c r="D198">
         <f t="shared" ca="1" si="8"/>
-        <v>118.84528703187155</v>
+        <v>101.34561914145223</v>
       </c>
       <c r="G198">
         <v>6924</v>
@@ -43329,11 +43329,11 @@
       </c>
       <c r="C199">
         <f t="shared" ca="1" si="6"/>
-        <v>5493</v>
+        <v>5362</v>
       </c>
       <c r="D199">
         <f t="shared" ca="1" si="8"/>
-        <v>109.59967442819965</v>
+        <v>107.02572615267519</v>
       </c>
       <c r="G199">
         <v>6924</v>
@@ -43357,11 +43357,11 @@
       </c>
       <c r="C200">
         <f t="shared" ca="1" si="6"/>
-        <v>5427</v>
+        <v>5462</v>
       </c>
       <c r="D200">
         <f t="shared" ca="1" si="8"/>
-        <v>108.10196571998648</v>
+        <v>109.1210602501879</v>
       </c>
       <c r="G200">
         <v>6897</v>
@@ -43385,11 +43385,11 @@
       </c>
       <c r="C201">
         <f t="shared" ca="1" si="6"/>
-        <v>5767</v>
+        <v>5477</v>
       </c>
       <c r="D201">
         <f t="shared" ca="1" si="8"/>
-        <v>115.14215456991586</v>
+        <v>109.13981764306109</v>
       </c>
       <c r="G201">
         <v>6897</v>
@@ -43413,11 +43413,11 @@
       </c>
       <c r="C202">
         <f ca="1">D202*50</f>
-        <v>5578.9119142787476</v>
+        <v>5592.608595181081</v>
       </c>
       <c r="D202">
         <f t="shared" ca="1" si="8"/>
-        <v>111.57823828557495</v>
+        <v>111.85217190362162</v>
       </c>
       <c r="G202">
         <v>6897</v>
@@ -43441,11 +43441,11 @@
       </c>
       <c r="C203">
         <f ca="1">D203*50</f>
-        <v>5470.0069539387987</v>
+        <v>5700.8554554180446</v>
       </c>
       <c r="D203">
         <f t="shared" ca="1" si="8"/>
-        <v>109.40013907877596</v>
+        <v>114.0171091083609</v>
       </c>
       <c r="G203">
         <v>6897</v>
@@ -43469,11 +43469,11 @@
       </c>
       <c r="C204">
         <f ca="1">D204*50</f>
-        <v>5761.3394831366531</v>
+        <v>5935.3293476267954</v>
       </c>
       <c r="D204">
         <f t="shared" ca="1" si="8"/>
-        <v>115.22678966273307</v>
+        <v>118.7065869525359</v>
       </c>
       <c r="G204">
         <v>6897</v>
@@ -71358,7 +71358,7 @@
   <dimension ref="C6:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="O34" sqref="O34"/>
+      <selection activeCell="P38" sqref="P38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -71650,7 +71650,7 @@
         <v>2</v>
       </c>
       <c r="D33">
-        <v>3821.23076923077</v>
+        <v>3721.23076923077</v>
       </c>
     </row>
     <row r="34" spans="3:4">
@@ -71658,7 +71658,7 @@
         <v>3</v>
       </c>
       <c r="D34">
-        <v>5100</v>
+        <v>5300</v>
       </c>
     </row>
     <row r="35" spans="3:4">
@@ -71666,7 +71666,7 @@
         <v>4</v>
       </c>
       <c r="D35">
-        <v>6359.0769230769201</v>
+        <v>6159.0769230769201</v>
       </c>
     </row>
     <row r="36" spans="3:4">
@@ -71674,7 +71674,7 @@
         <v>5</v>
       </c>
       <c r="D36">
-        <v>7459.0769230769201</v>
+        <v>6959.0769230769201</v>
       </c>
     </row>
     <row r="37" spans="3:4">
@@ -71682,7 +71682,7 @@
         <v>6</v>
       </c>
       <c r="D37">
-        <v>8000</v>
+        <v>7400</v>
       </c>
     </row>
     <row r="38" spans="3:4">
@@ -71690,7 +71690,7 @@
         <v>7</v>
       </c>
       <c r="D38">
-        <v>8500</v>
+        <v>7800</v>
       </c>
     </row>
     <row r="39" spans="3:4">
@@ -71698,7 +71698,7 @@
         <v>8</v>
       </c>
       <c r="D39">
-        <v>8900</v>
+        <v>8100</v>
       </c>
     </row>
   </sheetData>

--- a/draft/测试结果数据.xlsx
+++ b/draft/测试结果数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="8415" windowHeight="5010" activeTab="6"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="8415" windowHeight="5010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -858,6 +858,21 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
@@ -873,12 +888,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
@@ -889,15 +898,6 @@
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -924,10 +924,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.17395143254152079"/>
+          <c:x val="0.17395143254152085"/>
           <c:y val="0.19031321084864392"/>
-          <c:w val="0.64767427600961713"/>
-          <c:h val="0.62870086693708793"/>
+          <c:w val="0.64767427600961736"/>
+          <c:h val="0.62870086693708804"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1141,11 +1141,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="78633600"/>
-        <c:axId val="81003648"/>
+        <c:axId val="78633216"/>
+        <c:axId val="81007360"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="78633600"/>
+        <c:axId val="78633216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1170,20 +1170,20 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.82688652153774866"/>
-              <c:y val="0.85454545454545494"/>
+              <c:x val="0.82688652153774855"/>
+              <c:y val="0.85454545454545505"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81003648"/>
+        <c:crossAx val="81007360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81003648"/>
+        <c:axId val="81007360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1220,14 +1220,14 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.1008403361344537"/>
+              <c:x val="0.10084033613445367"/>
               <c:y val="2.3855563509106836E-2"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78633600"/>
+        <c:crossAx val="78633216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1239,7 +1239,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1258,7 +1258,7 @@
           <c:x val="6.4145238072998878E-2"/>
           <c:y val="0.15866476631073934"/>
           <c:w val="0.8229800456437607"/>
-          <c:h val="0.70093631471140283"/>
+          <c:h val="0.70093631471140272"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -12639,11 +12639,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="81867136"/>
-        <c:axId val="81869056"/>
+        <c:axId val="81858560"/>
+        <c:axId val="81860480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="81867136"/>
+        <c:axId val="81858560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12669,19 +12669,19 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="0.90410501178455893"/>
-              <c:y val="0.88921859545004933"/>
+              <c:y val="0.88921859545004922"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81869056"/>
+        <c:crossAx val="81860480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81869056"/>
+        <c:axId val="81860480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12712,13 +12712,13 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="1.5816528272044286E-2"/>
-              <c:y val="1.8529404892637703E-2"/>
+              <c:y val="1.8529404892637706E-2"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81867136"/>
+        <c:crossAx val="81858560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12730,7 +12730,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -12747,9 +12747,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.11265507436570428"/>
-          <c:y val="0.22732648002333056"/>
+          <c:y val="0.22732648002333058"/>
           <c:w val="0.68715048118985123"/>
-          <c:h val="0.62229913969087325"/>
+          <c:h val="0.62229913969087347"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -12939,11 +12939,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="83608704"/>
-        <c:axId val="83610624"/>
+        <c:axId val="82084224"/>
+        <c:axId val="82086144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="83608704"/>
+        <c:axId val="82084224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12969,20 +12969,20 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="0.83650809273840765"/>
-              <c:y val="0.81481481481481532"/>
+              <c:y val="0.81481481481481544"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83610624"/>
+        <c:crossAx val="82086144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83610624"/>
+        <c:axId val="82086144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13012,14 +13012,14 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.6666666666666684E-2"/>
+              <c:x val="1.6666666666666687E-2"/>
               <c:y val="5.2364756488772264E-2"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83608704"/>
+        <c:crossAx val="82084224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13028,7 +13028,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -13044,10 +13044,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.12673840769903763"/>
-          <c:y val="0.17065854422518173"/>
+          <c:x val="0.12673840769903766"/>
+          <c:y val="0.1706585442251817"/>
           <c:w val="0.67306714785651789"/>
-          <c:h val="0.65111996802868777"/>
+          <c:h val="0.65111996802868788"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -13124,11 +13124,11 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="139046912"/>
-        <c:axId val="135897088"/>
+        <c:axId val="82122240"/>
+        <c:axId val="82124160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="139046912"/>
+        <c:axId val="82122240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13157,21 +13157,21 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.83570253718285226"/>
+              <c:x val="0.83570253718285237"/>
               <c:y val="0.82990397805212623"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135897088"/>
+        <c:crossAx val="82124160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="135897088"/>
+        <c:axId val="82124160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13198,13 +13198,13 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="2.5000000000000001E-2"/>
-              <c:y val="2.4339241545424078E-2"/>
+              <c:y val="2.4339241545424085E-2"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139046912"/>
+        <c:crossAx val="82122240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13213,7 +13213,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -13229,10 +13229,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.18114939791316267"/>
-          <c:y val="0.18010438695163114"/>
+          <c:x val="0.18114939791316273"/>
+          <c:y val="0.18010438695163117"/>
           <c:w val="0.62555314960629926"/>
-          <c:h val="0.61505241844769432"/>
+          <c:h val="0.61505241844769443"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -13667,11 +13667,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="81030144"/>
-        <c:axId val="81056896"/>
+        <c:axId val="81033856"/>
+        <c:axId val="81056512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="81030144"/>
+        <c:axId val="81033856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13702,20 +13702,20 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="0.82318225344705254"/>
-              <c:y val="0.83889343832021035"/>
+              <c:y val="0.83889343832021046"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81056896"/>
+        <c:crossAx val="81056512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81056896"/>
+        <c:axId val="81056512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13753,7 +13753,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81030144"/>
+        <c:crossAx val="81033856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13766,7 +13766,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.8130181742405076"/>
           <c:y val="0.15270161229846271"/>
-          <c:w val="0.17942038908652497"/>
+          <c:w val="0.17942038908652502"/>
           <c:h val="0.27554915635545557"/>
         </c:manualLayout>
       </c:layout>
@@ -13775,7 +13775,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -13791,10 +13791,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.11446951342620636"/>
-          <c:y val="0.17895540569390553"/>
+          <c:x val="0.11446951342620637"/>
+          <c:y val="0.17895540569390556"/>
           <c:w val="0.69581067991501067"/>
-          <c:h val="0.6014873978073314"/>
+          <c:h val="0.60148739780733129"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -14376,11 +14376,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="81333632"/>
-        <c:axId val="81339904"/>
+        <c:axId val="81337344"/>
+        <c:axId val="81347712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="81333632"/>
+        <c:axId val="81337344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14405,21 +14405,21 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.87489745197779489"/>
-              <c:y val="0.83985102420856617"/>
+              <c:x val="0.874897451977795"/>
+              <c:y val="0.83985102420856639"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81339904"/>
+        <c:crossAx val="81347712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81339904"/>
+        <c:axId val="81347712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14445,14 +14445,14 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="2.1670031630661567E-2"/>
+              <c:x val="2.1670031630661574E-2"/>
               <c:y val="7.1405643672531369E-2"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81333632"/>
+        <c:crossAx val="81337344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14474,7 +14474,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -14491,8 +14491,8 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="8.0348344272716282E-2"/>
-          <c:y val="0.11633824032865459"/>
-          <c:w val="0.77826475256714778"/>
+          <c:y val="0.1163382403286546"/>
+          <c:w val="0.77826475256714789"/>
           <c:h val="0.74651846780022058"/>
         </c:manualLayout>
       </c:layout>
@@ -16407,11 +16407,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="81468416"/>
-        <c:axId val="81478784"/>
+        <c:axId val="81472128"/>
+        <c:axId val="81478400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="81468416"/>
+        <c:axId val="81472128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16436,20 +16436,20 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.88533015096738443"/>
+              <c:x val="0.88533015096738432"/>
               <c:y val="0.86086956521739133"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81478784"/>
+        <c:crossAx val="81478400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81478784"/>
+        <c:axId val="81478400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16479,14 +16479,14 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="2.7736503219415554E-2"/>
+              <c:x val="2.7736503219415558E-2"/>
               <c:y val="6.5055346342576936E-3"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81468416"/>
+        <c:crossAx val="81472128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16498,7 +16498,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -17761,24 +17761,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="81636352"/>
-        <c:axId val="81564416"/>
+        <c:axId val="81631872"/>
+        <c:axId val="81564032"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="81636352"/>
+        <c:axId val="81631872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81564416"/>
+        <c:crossAx val="81564032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81564416"/>
+        <c:axId val="81564032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17786,7 +17786,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81636352"/>
+        <c:crossAx val="81631872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17798,7 +17798,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -17839,10 +17839,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="3.7745175470087537E-2"/>
+          <c:x val="3.7745175470087551E-2"/>
           <c:y val="0.2088079615048119"/>
           <c:w val="0.77413482889106944"/>
-          <c:h val="0.71664333624963583"/>
+          <c:h val="0.71664333624963594"/>
         </c:manualLayout>
       </c:layout>
       <c:areaChart>
@@ -18191,8 +18191,8 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="81662720"/>
-        <c:axId val="81652736"/>
+        <c:axId val="81654144"/>
+        <c:axId val="81652352"/>
       </c:areaChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -19226,56 +19226,56 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="81651200"/>
-        <c:axId val="81649664"/>
+        <c:axId val="81650816"/>
+        <c:axId val="81591680"/>
       </c:lineChart>
       <c:valAx>
-        <c:axId val="81649664"/>
+        <c:axId val="81591680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81651200"/>
+        <c:crossAx val="81650816"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="81651200"/>
+        <c:axId val="81650816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81649664"/>
+        <c:crossAx val="81591680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81652736"/>
+        <c:axId val="81652352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81662720"/>
+        <c:crossAx val="81654144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="81662720"/>
+        <c:axId val="81654144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81652736"/>
+        <c:crossAx val="81652352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -19290,7 +19290,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -20322,24 +20322,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="81704832"/>
-        <c:axId val="81706368"/>
+        <c:axId val="81688064"/>
+        <c:axId val="81689600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="81704832"/>
+        <c:axId val="81688064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81706368"/>
+        <c:crossAx val="81689600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81706368"/>
+        <c:axId val="81689600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20347,7 +20347,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81704832"/>
+        <c:crossAx val="81688064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -20359,7 +20359,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -20377,9 +20377,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="8.636151189362401E-2"/>
-          <c:y val="0.19267527722176275"/>
-          <c:w val="0.77458184058599377"/>
-          <c:h val="0.69577429824480785"/>
+          <c:y val="0.19267527722176273"/>
+          <c:w val="0.77458184058599389"/>
+          <c:h val="0.69577429824480796"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -21132,11 +21132,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="81765888"/>
-        <c:axId val="81767808"/>
+        <c:axId val="81761408"/>
+        <c:axId val="81763328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="81765888"/>
+        <c:axId val="81761408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21161,8 +21161,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.91085127808811761"/>
-              <c:y val="0.89353537724496468"/>
+              <c:x val="0.91085127808811772"/>
+              <c:y val="0.89353537724496457"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
@@ -21177,14 +21177,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81767808"/>
+        <c:crossAx val="81763328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81767808"/>
+        <c:axId val="81763328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21192,7 +21192,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81765888"/>
+        <c:crossAx val="81761408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -21214,7 +21214,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -21232,7 +21232,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="6.5909464458871164E-2"/>
-          <c:y val="0.1350808480546149"/>
+          <c:y val="0.13508084805461487"/>
           <c:w val="0.8299807486144406"/>
           <c:h val="0.73647641195109681"/>
         </c:manualLayout>
@@ -31206,11 +31206,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="81816960"/>
-        <c:axId val="81827328"/>
+        <c:axId val="81812480"/>
+        <c:axId val="81826944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="81816960"/>
+        <c:axId val="81812480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -31235,20 +31235,20 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.91123570008786814"/>
+              <c:x val="0.91123570008786803"/>
               <c:y val="0.91448931116389565"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81827328"/>
+        <c:crossAx val="81826944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81827328"/>
+        <c:axId val="81826944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -31278,14 +31278,14 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.0111953773925602E-2"/>
-              <c:y val="5.475283206179539E-2"/>
+              <c:x val="1.0111953773925601E-2"/>
+              <c:y val="5.4752832061795396E-2"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81816960"/>
+        <c:crossAx val="81812480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -31297,7 +31297,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -33100,14 +33100,14 @@
       <c r="G50" s="1">
         <v>1</v>
       </c>
-      <c r="H50" s="32"/>
-      <c r="I50" s="33"/>
-      <c r="J50" s="33"/>
-      <c r="K50" s="33"/>
-      <c r="L50" s="33"/>
-      <c r="M50" s="33"/>
-      <c r="N50" s="33"/>
-      <c r="O50" s="34"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="22"/>
+      <c r="L50" s="22"/>
+      <c r="M50" s="22"/>
+      <c r="N50" s="22"/>
+      <c r="O50" s="23"/>
     </row>
     <row r="51" spans="1:15" ht="15" customHeight="1">
       <c r="A51" s="5" t="s">
@@ -33131,11 +33131,11 @@
       <c r="H51" s="10"/>
       <c r="I51" s="12"/>
       <c r="J51" s="12"/>
-      <c r="K51" s="26"/>
+      <c r="K51" s="24"/>
       <c r="L51" s="12"/>
-      <c r="M51" s="26"/>
-      <c r="N51" s="26"/>
-      <c r="O51" s="26"/>
+      <c r="M51" s="24"/>
+      <c r="N51" s="24"/>
+      <c r="O51" s="24"/>
     </row>
     <row r="52" spans="1:15" ht="15" customHeight="1" thickBot="1">
       <c r="A52" s="5" t="s">
@@ -33159,11 +33159,11 @@
       <c r="H52" s="15"/>
       <c r="I52" s="13"/>
       <c r="J52" s="13"/>
-      <c r="K52" s="27"/>
+      <c r="K52" s="25"/>
       <c r="L52" s="13"/>
-      <c r="M52" s="27"/>
-      <c r="N52" s="27"/>
-      <c r="O52" s="27"/>
+      <c r="M52" s="25"/>
+      <c r="N52" s="25"/>
+      <c r="O52" s="25"/>
     </row>
     <row r="53" spans="1:15" ht="18.75" customHeight="1" thickBot="1">
       <c r="A53" s="5" t="s">
@@ -33189,10 +33189,10 @@
       <c r="I53" s="15"/>
       <c r="J53" s="15"/>
       <c r="K53" s="15"/>
-      <c r="L53" s="21"/>
-      <c r="M53" s="21"/>
-      <c r="N53" s="21"/>
-      <c r="O53" s="21"/>
+      <c r="L53" s="26"/>
+      <c r="M53" s="26"/>
+      <c r="N53" s="26"/>
+      <c r="O53" s="26"/>
     </row>
     <row r="54" spans="1:15" ht="15" customHeight="1" thickBot="1">
       <c r="A54" s="5" t="s">
@@ -33214,10 +33214,10 @@
       <c r="I54" s="15"/>
       <c r="J54" s="15"/>
       <c r="K54" s="15"/>
-      <c r="L54" s="22"/>
-      <c r="M54" s="22"/>
-      <c r="N54" s="22"/>
-      <c r="O54" s="22"/>
+      <c r="L54" s="27"/>
+      <c r="M54" s="27"/>
+      <c r="N54" s="27"/>
+      <c r="O54" s="27"/>
     </row>
     <row r="55" spans="1:15" ht="15" customHeight="1" thickBot="1">
       <c r="A55" s="5" t="s">
@@ -33581,13 +33581,13 @@
         <v>47</v>
       </c>
       <c r="H71" s="11"/>
-      <c r="I71" s="23"/>
-      <c r="J71" s="24"/>
-      <c r="K71" s="25"/>
+      <c r="I71" s="28"/>
+      <c r="J71" s="29"/>
+      <c r="K71" s="30"/>
       <c r="L71" s="13"/>
-      <c r="M71" s="23"/>
-      <c r="N71" s="24"/>
-      <c r="O71" s="25"/>
+      <c r="M71" s="28"/>
+      <c r="N71" s="29"/>
+      <c r="O71" s="30"/>
     </row>
     <row r="72" spans="1:15">
       <c r="A72" s="5" t="s">
@@ -33690,16 +33690,16 @@
       <c r="E77" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H77" s="32" t="s">
+      <c r="H77" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="I77" s="33"/>
-      <c r="J77" s="33"/>
-      <c r="K77" s="33"/>
-      <c r="L77" s="33"/>
-      <c r="M77" s="33"/>
-      <c r="N77" s="33"/>
-      <c r="O77" s="34"/>
+      <c r="I77" s="22"/>
+      <c r="J77" s="22"/>
+      <c r="K77" s="22"/>
+      <c r="L77" s="22"/>
+      <c r="M77" s="22"/>
+      <c r="N77" s="22"/>
+      <c r="O77" s="23"/>
     </row>
     <row r="78" spans="1:15" ht="25.5">
       <c r="A78" s="5" t="s">
@@ -33726,19 +33726,19 @@
       <c r="J78" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="K78" s="26" t="s">
+      <c r="K78" s="24" t="s">
         <v>107</v>
       </c>
       <c r="L78" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="M78" s="26" t="s">
+      <c r="M78" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="N78" s="26" t="s">
+      <c r="N78" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="O78" s="26" t="s">
+      <c r="O78" s="24" t="s">
         <v>107</v>
       </c>
     </row>
@@ -33767,13 +33767,13 @@
       <c r="J79" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="K79" s="27"/>
+      <c r="K79" s="25"/>
       <c r="L79" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="M79" s="27"/>
-      <c r="N79" s="27"/>
-      <c r="O79" s="27"/>
+      <c r="M79" s="25"/>
+      <c r="N79" s="25"/>
+      <c r="O79" s="25"/>
     </row>
     <row r="80" spans="1:15" ht="19.5" customHeight="1">
       <c r="A80" s="5" t="s">
@@ -33791,20 +33791,20 @@
       <c r="E80" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H80" s="28" t="s">
+      <c r="H80" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="I80" s="30">
+      <c r="I80" s="33">
         <v>1</v>
       </c>
-      <c r="J80" s="30">
+      <c r="J80" s="33">
         <v>85</v>
       </c>
-      <c r="K80" s="21"/>
-      <c r="L80" s="21"/>
-      <c r="M80" s="21"/>
-      <c r="N80" s="21"/>
-      <c r="O80" s="21"/>
+      <c r="K80" s="26"/>
+      <c r="L80" s="26"/>
+      <c r="M80" s="26"/>
+      <c r="N80" s="26"/>
+      <c r="O80" s="26"/>
     </row>
     <row r="81" spans="1:15" ht="14.25" thickBot="1">
       <c r="A81" s="5" t="s">
@@ -33822,14 +33822,14 @@
       <c r="E81" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H81" s="29"/>
-      <c r="I81" s="31"/>
-      <c r="J81" s="31"/>
-      <c r="K81" s="22"/>
-      <c r="L81" s="22"/>
-      <c r="M81" s="22"/>
-      <c r="N81" s="22"/>
-      <c r="O81" s="22"/>
+      <c r="H81" s="32"/>
+      <c r="I81" s="34"/>
+      <c r="J81" s="34"/>
+      <c r="K81" s="27"/>
+      <c r="L81" s="27"/>
+      <c r="M81" s="27"/>
+      <c r="N81" s="27"/>
+      <c r="O81" s="27"/>
     </row>
     <row r="82" spans="1:15" ht="51.75" thickBot="1">
       <c r="A82" s="5" t="s">
@@ -34238,21 +34238,35 @@
       <c r="H98" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="I98" s="23"/>
-      <c r="J98" s="24"/>
-      <c r="K98" s="25"/>
+      <c r="I98" s="28"/>
+      <c r="J98" s="29"/>
+      <c r="K98" s="30"/>
       <c r="L98" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="M98" s="23"/>
-      <c r="N98" s="24"/>
-      <c r="O98" s="25"/>
+      <c r="M98" s="28"/>
+      <c r="N98" s="29"/>
+      <c r="O98" s="30"/>
     </row>
   </sheetData>
   <sortState ref="A40:F61">
     <sortCondition ref="D40:D61"/>
   </sortState>
   <mergeCells count="26">
+    <mergeCell ref="N80:N81"/>
+    <mergeCell ref="O80:O81"/>
+    <mergeCell ref="I98:K98"/>
+    <mergeCell ref="M98:O98"/>
+    <mergeCell ref="K78:K79"/>
+    <mergeCell ref="M78:M79"/>
+    <mergeCell ref="N78:N79"/>
+    <mergeCell ref="O78:O79"/>
+    <mergeCell ref="M80:M81"/>
+    <mergeCell ref="H80:H81"/>
+    <mergeCell ref="I80:I81"/>
+    <mergeCell ref="J80:J81"/>
+    <mergeCell ref="K80:K81"/>
+    <mergeCell ref="L80:L81"/>
     <mergeCell ref="H77:O77"/>
     <mergeCell ref="H50:O50"/>
     <mergeCell ref="K51:K52"/>
@@ -34265,20 +34279,6 @@
     <mergeCell ref="O53:O54"/>
     <mergeCell ref="I71:K71"/>
     <mergeCell ref="M71:O71"/>
-    <mergeCell ref="H80:H81"/>
-    <mergeCell ref="I80:I81"/>
-    <mergeCell ref="J80:J81"/>
-    <mergeCell ref="K80:K81"/>
-    <mergeCell ref="L80:L81"/>
-    <mergeCell ref="N80:N81"/>
-    <mergeCell ref="O80:O81"/>
-    <mergeCell ref="I98:K98"/>
-    <mergeCell ref="M98:O98"/>
-    <mergeCell ref="K78:K79"/>
-    <mergeCell ref="M78:M79"/>
-    <mergeCell ref="N78:N79"/>
-    <mergeCell ref="O78:O79"/>
-    <mergeCell ref="M80:M81"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -35113,7 +35113,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A5:X73"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
       <selection activeCell="L73" sqref="H55:L73"/>
     </sheetView>
   </sheetViews>
@@ -41378,7 +41378,7 @@
         <v>3798</v>
       </c>
       <c r="C130">
-        <f t="shared" ref="C130:C161" si="4">D130*50</f>
+        <f t="shared" ref="C130:C135" si="4">D130*50</f>
         <v>0</v>
       </c>
       <c r="D130">
@@ -41703,7 +41703,7 @@
       </c>
       <c r="C142">
         <f t="shared" ref="C142:C201" ca="1" si="6">INT(D142*50+RAND()*25)</f>
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="D142">
         <v>4</v>
@@ -41730,7 +41730,7 @@
       </c>
       <c r="C143">
         <f t="shared" ca="1" si="6"/>
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="D143">
         <v>4</v>
@@ -41757,7 +41757,7 @@
       </c>
       <c r="C144">
         <f t="shared" ca="1" si="6"/>
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D144">
         <v>4</v>
@@ -41784,7 +41784,7 @@
       </c>
       <c r="C145">
         <f t="shared" ca="1" si="6"/>
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="D145">
         <v>4</v>
@@ -41811,7 +41811,7 @@
       </c>
       <c r="C146">
         <f t="shared" ca="1" si="6"/>
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D146">
         <v>4</v>
@@ -41838,7 +41838,7 @@
       </c>
       <c r="C147">
         <f t="shared" ca="1" si="6"/>
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D147">
         <v>8</v>
@@ -41865,7 +41865,7 @@
       </c>
       <c r="C148">
         <f t="shared" ca="1" si="6"/>
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D148">
         <v>8</v>
@@ -41892,7 +41892,7 @@
       </c>
       <c r="C149">
         <f t="shared" ca="1" si="6"/>
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="D149">
         <v>12</v>
@@ -41919,7 +41919,7 @@
       </c>
       <c r="C150">
         <f t="shared" ca="1" si="6"/>
-        <v>601</v>
+        <v>612</v>
       </c>
       <c r="D150">
         <v>12</v>
@@ -41946,7 +41946,7 @@
       </c>
       <c r="C151">
         <f t="shared" ca="1" si="6"/>
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="D151">
         <v>12</v>
@@ -41973,7 +41973,7 @@
       </c>
       <c r="C152">
         <f t="shared" ca="1" si="6"/>
-        <v>5158</v>
+        <v>5171</v>
       </c>
       <c r="D152">
         <v>103</v>
@@ -42000,7 +42000,7 @@
       </c>
       <c r="C153">
         <f t="shared" ca="1" si="6"/>
-        <v>5171</v>
+        <v>5166</v>
       </c>
       <c r="D153">
         <v>103</v>
@@ -42027,7 +42027,7 @@
       </c>
       <c r="C154">
         <f t="shared" ca="1" si="6"/>
-        <v>5166</v>
+        <v>5174</v>
       </c>
       <c r="D154">
         <v>103</v>
@@ -42054,7 +42054,7 @@
       </c>
       <c r="C155">
         <f t="shared" ca="1" si="6"/>
-        <v>5165</v>
+        <v>5169</v>
       </c>
       <c r="D155">
         <v>103</v>
@@ -42081,7 +42081,7 @@
       </c>
       <c r="C156">
         <f t="shared" ca="1" si="6"/>
-        <v>5173</v>
+        <v>5161</v>
       </c>
       <c r="D156">
         <v>103</v>
@@ -42108,11 +42108,11 @@
       </c>
       <c r="C157">
         <f t="shared" ca="1" si="6"/>
-        <v>5600</v>
+        <v>5460</v>
       </c>
       <c r="D157">
         <f ca="1">INT(D156+RAND()*10)</f>
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G157">
         <v>4952</v>
@@ -42136,11 +42136,11 @@
       </c>
       <c r="C158">
         <f t="shared" ca="1" si="6"/>
-        <v>5964</v>
+        <v>5660</v>
       </c>
       <c r="D158">
         <f t="shared" ref="D158:D172" ca="1" si="7">INT(D157+RAND()*10)</f>
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="G158">
         <v>4952</v>
@@ -42164,11 +42164,11 @@
       </c>
       <c r="C159">
         <f t="shared" ca="1" si="6"/>
-        <v>5962</v>
+        <v>5851</v>
       </c>
       <c r="D159">
         <f t="shared" ca="1" si="7"/>
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G159">
         <v>5337</v>
@@ -42192,11 +42192,11 @@
       </c>
       <c r="C160">
         <f t="shared" ca="1" si="6"/>
-        <v>5934</v>
+        <v>5740</v>
       </c>
       <c r="D160">
         <f ca="1">D159-RAND()*10</f>
-        <v>118.2266279882442</v>
+        <v>114.54230119467742</v>
       </c>
       <c r="G160">
         <v>5337</v>
@@ -42220,11 +42220,11 @@
       </c>
       <c r="C161">
         <f ca="1">INT(D161*50+RAND()*25)</f>
-        <v>6219</v>
+        <v>5763</v>
       </c>
       <c r="D161">
         <f t="shared" ca="1" si="7"/>
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="G161">
         <v>5337</v>
@@ -42251,11 +42251,11 @@
       </c>
       <c r="C162">
         <f t="shared" ca="1" si="6"/>
-        <v>6306</v>
+        <v>5867</v>
       </c>
       <c r="D162">
         <f t="shared" ca="1" si="7"/>
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="G162">
         <v>5337</v>
@@ -42282,11 +42282,11 @@
       </c>
       <c r="C163">
         <f t="shared" ca="1" si="6"/>
-        <v>6152</v>
+        <v>5636</v>
       </c>
       <c r="D163">
         <f ca="1">D162-RAND()*10</f>
-        <v>122.60780716769426</v>
+        <v>112.5793986855607</v>
       </c>
       <c r="G163">
         <v>5337</v>
@@ -42313,11 +42313,11 @@
       </c>
       <c r="C164">
         <f t="shared" ca="1" si="6"/>
-        <v>6419</v>
+        <v>5722</v>
       </c>
       <c r="D164">
         <f t="shared" ca="1" si="7"/>
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="G164">
         <v>5810</v>
@@ -42344,11 +42344,11 @@
       </c>
       <c r="C165">
         <f t="shared" ca="1" si="6"/>
-        <v>5920</v>
+        <v>5670</v>
       </c>
       <c r="D165">
         <f ca="1">D164-RAND()*10</f>
-        <v>118.3753956753484</v>
+        <v>113.23037402248701</v>
       </c>
       <c r="G165">
         <v>5810</v>
@@ -42375,7 +42375,7 @@
       </c>
       <c r="C166">
         <f t="shared" ca="1" si="6"/>
-        <v>5907</v>
+        <v>5924</v>
       </c>
       <c r="D166">
         <f t="shared" ca="1" si="7"/>
@@ -42406,11 +42406,11 @@
       </c>
       <c r="C167">
         <f t="shared" ca="1" si="6"/>
-        <v>6357</v>
+        <v>6264</v>
       </c>
       <c r="D167">
         <f t="shared" ca="1" si="7"/>
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G167">
         <v>5810</v>
@@ -42437,11 +42437,11 @@
       </c>
       <c r="C168">
         <f t="shared" ca="1" si="6"/>
-        <v>6210</v>
+        <v>6237</v>
       </c>
       <c r="D168">
         <f ca="1">D167-RAND()*10</f>
-        <v>124.062734953947</v>
+        <v>124.7236667653016</v>
       </c>
       <c r="G168">
         <v>5810</v>
@@ -42468,11 +42468,11 @@
       </c>
       <c r="C169">
         <f t="shared" ca="1" si="6"/>
-        <v>6219</v>
+        <v>6271</v>
       </c>
       <c r="D169">
         <f t="shared" ca="1" si="7"/>
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G169">
         <v>5810</v>
@@ -42499,11 +42499,11 @@
       </c>
       <c r="C170">
         <f ca="1">INT(D170*50+RAND()*25)</f>
-        <v>6182</v>
+        <v>6167</v>
       </c>
       <c r="D170">
         <f ca="1">D169-RAND()*10</f>
-        <v>123.30143884413485</v>
+        <v>123.14301447464408</v>
       </c>
       <c r="G170">
         <v>6239</v>
@@ -42530,11 +42530,11 @@
       </c>
       <c r="C171">
         <f t="shared" ca="1" si="6"/>
-        <v>6318</v>
+        <v>6260</v>
       </c>
       <c r="D171">
         <f t="shared" ca="1" si="7"/>
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G171">
         <v>6239</v>
@@ -42561,11 +42561,11 @@
       </c>
       <c r="C172">
         <f t="shared" ca="1" si="6"/>
-        <v>6558</v>
+        <v>6509</v>
       </c>
       <c r="D172">
         <f t="shared" ca="1" si="7"/>
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G172">
         <v>6239</v>
@@ -42592,11 +42592,11 @@
       </c>
       <c r="C173">
         <f t="shared" ca="1" si="6"/>
-        <v>5464</v>
+        <v>5652</v>
       </c>
       <c r="D173">
         <f ca="1">100+RAND()*20</f>
-        <v>109.13294559305061</v>
+        <v>112.82684716640102</v>
       </c>
       <c r="G173">
         <v>6239</v>
@@ -42623,11 +42623,11 @@
       </c>
       <c r="C174">
         <f t="shared" ca="1" si="6"/>
-        <v>5476</v>
+        <v>5371</v>
       </c>
       <c r="D174">
         <f t="shared" ref="D174:D204" ca="1" si="8">100+RAND()*20</f>
-        <v>109.15097311849385</v>
+        <v>107.15318066064454</v>
       </c>
       <c r="G174">
         <v>6239</v>
@@ -42654,11 +42654,11 @@
       </c>
       <c r="C175">
         <f t="shared" ca="1" si="6"/>
-        <v>5084</v>
+        <v>5683</v>
       </c>
       <c r="D175">
         <f t="shared" ca="1" si="8"/>
-        <v>101.37448592966595</v>
+        <v>113.5389001719397</v>
       </c>
       <c r="G175">
         <v>6049</v>
@@ -42685,11 +42685,11 @@
       </c>
       <c r="C176">
         <f t="shared" ca="1" si="6"/>
-        <v>5497</v>
+        <v>5893</v>
       </c>
       <c r="D176">
         <f t="shared" ca="1" si="8"/>
-        <v>109.70251392933955</v>
+        <v>117.46491981285196</v>
       </c>
       <c r="G176">
         <v>6049</v>
@@ -42713,11 +42713,11 @@
       </c>
       <c r="C177">
         <f t="shared" ca="1" si="6"/>
-        <v>5475</v>
+        <v>5285</v>
       </c>
       <c r="D177">
         <f t="shared" ca="1" si="8"/>
-        <v>109.21078165981305</v>
+        <v>105.55594763529581</v>
       </c>
       <c r="G177">
         <v>6049</v>
@@ -42741,11 +42741,11 @@
       </c>
       <c r="C178">
         <f t="shared" ca="1" si="6"/>
-        <v>5863</v>
+        <v>5969</v>
       </c>
       <c r="D178">
         <f t="shared" ca="1" si="8"/>
-        <v>117.13312892761213</v>
+        <v>118.97723104534691</v>
       </c>
       <c r="G178">
         <v>6049</v>
@@ -42769,11 +42769,11 @@
       </c>
       <c r="C179">
         <f t="shared" ca="1" si="6"/>
-        <v>5779</v>
+        <v>5964</v>
       </c>
       <c r="D179">
         <f t="shared" ca="1" si="8"/>
-        <v>115.5731632629908</v>
+        <v>118.90873717146</v>
       </c>
       <c r="G179">
         <v>6049</v>
@@ -42797,11 +42797,11 @@
       </c>
       <c r="C180">
         <f t="shared" ca="1" si="6"/>
-        <v>5790</v>
+        <v>5526</v>
       </c>
       <c r="D180">
         <f t="shared" ca="1" si="8"/>
-        <v>115.68929714150327</v>
+        <v>110.36441410507108</v>
       </c>
       <c r="G180">
         <v>6241</v>
@@ -42825,11 +42825,11 @@
       </c>
       <c r="C181">
         <f t="shared" ca="1" si="6"/>
-        <v>5398</v>
+        <v>5881</v>
       </c>
       <c r="D181">
         <f t="shared" ca="1" si="8"/>
-        <v>107.90897415640001</v>
+        <v>117.17866499111079</v>
       </c>
       <c r="G181">
         <v>6241</v>
@@ -42853,11 +42853,11 @@
       </c>
       <c r="C182">
         <f t="shared" ca="1" si="6"/>
-        <v>5816</v>
+        <v>5912</v>
       </c>
       <c r="D182">
         <f t="shared" ca="1" si="8"/>
-        <v>116.30994134518605</v>
+        <v>118.000654646564</v>
       </c>
       <c r="G182">
         <v>6241</v>
@@ -42881,11 +42881,11 @@
       </c>
       <c r="C183">
         <f t="shared" ca="1" si="6"/>
-        <v>5873</v>
+        <v>5207</v>
       </c>
       <c r="D183">
         <f t="shared" ca="1" si="8"/>
-        <v>117.04144325805871</v>
+        <v>103.71872260056136</v>
       </c>
       <c r="G183">
         <v>6241</v>
@@ -42909,11 +42909,11 @@
       </c>
       <c r="C184">
         <f t="shared" ca="1" si="6"/>
-        <v>5681</v>
+        <v>5457</v>
       </c>
       <c r="D184">
         <f t="shared" ca="1" si="8"/>
-        <v>113.58740138887521</v>
+        <v>108.76154287800864</v>
       </c>
       <c r="G184">
         <v>6241</v>
@@ -42937,11 +42937,11 @@
       </c>
       <c r="C185">
         <f t="shared" ca="1" si="6"/>
-        <v>5721</v>
+        <v>5711</v>
       </c>
       <c r="D185">
         <f t="shared" ca="1" si="8"/>
-        <v>113.97277502479905</v>
+        <v>113.86446676406241</v>
       </c>
       <c r="G185">
         <v>6526</v>
@@ -42965,11 +42965,11 @@
       </c>
       <c r="C186">
         <f t="shared" ca="1" si="6"/>
-        <v>5662</v>
+        <v>5448</v>
       </c>
       <c r="D186">
         <f t="shared" ca="1" si="8"/>
-        <v>112.79408554432905</v>
+        <v>108.66940693818867</v>
       </c>
       <c r="G186">
         <v>6526</v>
@@ -42993,11 +42993,11 @@
       </c>
       <c r="C187">
         <f t="shared" ca="1" si="6"/>
-        <v>5223</v>
+        <v>5631</v>
       </c>
       <c r="D187">
         <f t="shared" ca="1" si="8"/>
-        <v>104.03237057503111</v>
+        <v>112.46603449021211</v>
       </c>
       <c r="G187">
         <v>6526</v>
@@ -43021,11 +43021,11 @@
       </c>
       <c r="C188">
         <f t="shared" ca="1" si="6"/>
-        <v>5526</v>
+        <v>5181</v>
       </c>
       <c r="D188">
         <f t="shared" ca="1" si="8"/>
-        <v>110.25056641400484</v>
+        <v>103.18155885762687</v>
       </c>
       <c r="G188">
         <v>6526</v>
@@ -43049,11 +43049,11 @@
       </c>
       <c r="C189">
         <f t="shared" ca="1" si="6"/>
-        <v>5800</v>
+        <v>5314</v>
       </c>
       <c r="D189">
         <f t="shared" ca="1" si="8"/>
-        <v>115.56858637926496</v>
+        <v>105.84636122435434</v>
       </c>
       <c r="G189">
         <v>6526</v>
@@ -43077,11 +43077,11 @@
       </c>
       <c r="C190">
         <f t="shared" ca="1" si="6"/>
-        <v>5764</v>
+        <v>5092</v>
       </c>
       <c r="D190">
         <f t="shared" ca="1" si="8"/>
-        <v>115.16146254228238</v>
+        <v>101.36242784599644</v>
       </c>
       <c r="G190">
         <v>6769</v>
@@ -43105,11 +43105,11 @@
       </c>
       <c r="C191">
         <f t="shared" ca="1" si="6"/>
-        <v>5316</v>
+        <v>5545</v>
       </c>
       <c r="D191">
         <f t="shared" ca="1" si="8"/>
-        <v>106.27261694016558</v>
+        <v>110.41243502692564</v>
       </c>
       <c r="G191">
         <v>6769</v>
@@ -43133,11 +43133,11 @@
       </c>
       <c r="C192">
         <f t="shared" ca="1" si="6"/>
-        <v>5418</v>
+        <v>5473</v>
       </c>
       <c r="D192">
         <f t="shared" ca="1" si="8"/>
-        <v>107.9057613430694</v>
+        <v>109.33083934370744</v>
       </c>
       <c r="G192">
         <v>6769</v>
@@ -43161,11 +43161,11 @@
       </c>
       <c r="C193">
         <f t="shared" ca="1" si="6"/>
-        <v>5667</v>
+        <v>5633</v>
       </c>
       <c r="D193">
         <f t="shared" ca="1" si="8"/>
-        <v>112.91087126616583</v>
+        <v>112.16611355420255</v>
       </c>
       <c r="G193">
         <v>6769</v>
@@ -43189,11 +43189,11 @@
       </c>
       <c r="C194">
         <f t="shared" ca="1" si="6"/>
-        <v>5044</v>
+        <v>5185</v>
       </c>
       <c r="D194">
         <f t="shared" ca="1" si="8"/>
-        <v>100.66836777635181</v>
+        <v>103.41389501999279</v>
       </c>
       <c r="G194">
         <v>6769</v>
@@ -43217,11 +43217,11 @@
       </c>
       <c r="C195">
         <f t="shared" ca="1" si="6"/>
-        <v>5383</v>
+        <v>5848</v>
       </c>
       <c r="D195">
         <f t="shared" ca="1" si="8"/>
-        <v>107.6264756185938</v>
+        <v>116.9029017558596</v>
       </c>
       <c r="G195">
         <v>6924</v>
@@ -43245,11 +43245,11 @@
       </c>
       <c r="C196">
         <f t="shared" ca="1" si="6"/>
-        <v>5782</v>
+        <v>5424</v>
       </c>
       <c r="D196">
         <f t="shared" ca="1" si="8"/>
-        <v>115.63204962989073</v>
+        <v>108.239275836044</v>
       </c>
       <c r="G196">
         <v>6924</v>
@@ -43273,11 +43273,11 @@
       </c>
       <c r="C197">
         <f t="shared" ca="1" si="6"/>
-        <v>5869</v>
+        <v>5872</v>
       </c>
       <c r="D197">
         <f t="shared" ca="1" si="8"/>
-        <v>117.13573707531624</v>
+        <v>117.00574872044027</v>
       </c>
       <c r="G197">
         <v>6924</v>
@@ -43301,11 +43301,11 @@
       </c>
       <c r="C198">
         <f t="shared" ca="1" si="6"/>
-        <v>5084</v>
+        <v>5797</v>
       </c>
       <c r="D198">
         <f t="shared" ca="1" si="8"/>
-        <v>101.34561914145223</v>
+        <v>115.68228007061398</v>
       </c>
       <c r="G198">
         <v>6924</v>
@@ -43329,11 +43329,11 @@
       </c>
       <c r="C199">
         <f t="shared" ca="1" si="6"/>
-        <v>5362</v>
+        <v>5448</v>
       </c>
       <c r="D199">
         <f t="shared" ca="1" si="8"/>
-        <v>107.02572615267519</v>
+        <v>108.58831884835431</v>
       </c>
       <c r="G199">
         <v>6924</v>
@@ -43357,11 +43357,11 @@
       </c>
       <c r="C200">
         <f t="shared" ca="1" si="6"/>
-        <v>5462</v>
+        <v>5399</v>
       </c>
       <c r="D200">
         <f t="shared" ca="1" si="8"/>
-        <v>109.1210602501879</v>
+        <v>107.76156043243734</v>
       </c>
       <c r="G200">
         <v>6897</v>
@@ -43385,11 +43385,11 @@
       </c>
       <c r="C201">
         <f t="shared" ca="1" si="6"/>
-        <v>5477</v>
+        <v>5331</v>
       </c>
       <c r="D201">
         <f t="shared" ca="1" si="8"/>
-        <v>109.13981764306109</v>
+        <v>106.40217698044688</v>
       </c>
       <c r="G201">
         <v>6897</v>
@@ -43413,11 +43413,11 @@
       </c>
       <c r="C202">
         <f ca="1">D202*50</f>
-        <v>5592.608595181081</v>
+        <v>5382.9721201128077</v>
       </c>
       <c r="D202">
         <f t="shared" ca="1" si="8"/>
-        <v>111.85217190362162</v>
+        <v>107.65944240225615</v>
       </c>
       <c r="G202">
         <v>6897</v>
@@ -43441,11 +43441,11 @@
       </c>
       <c r="C203">
         <f ca="1">D203*50</f>
-        <v>5700.8554554180446</v>
+        <v>5312.9677898895043</v>
       </c>
       <c r="D203">
         <f t="shared" ca="1" si="8"/>
-        <v>114.0171091083609</v>
+        <v>106.25935579779008</v>
       </c>
       <c r="G203">
         <v>6897</v>
@@ -43469,11 +43469,11 @@
       </c>
       <c r="C204">
         <f ca="1">D204*50</f>
-        <v>5935.3293476267954</v>
+        <v>5455.8387972378896</v>
       </c>
       <c r="D204">
         <f t="shared" ca="1" si="8"/>
-        <v>118.7065869525359</v>
+        <v>109.11677594475779</v>
       </c>
       <c r="G204">
         <v>6897</v>
@@ -71357,7 +71357,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C6:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="P38" sqref="P38"/>
     </sheetView>
   </sheetViews>
